--- a/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.2.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.2.0.0/report-checklist.xlsx
@@ -5234,7 +5234,9 @@
       </c>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
-      <c r="J19" s="60"/>
+      <c r="J19" t="s" s="59">
+        <v>62</v>
+      </c>
       <c r="K19" s="60"/>
       <c r="L19" s="60"/>
       <c r="M19" t="s" s="59">
@@ -5291,7 +5293,9 @@
       </c>
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
-      <c r="J20" s="60"/>
+      <c r="J20" t="s" s="59">
+        <v>62</v>
+      </c>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
       <c r="M20" t="s" s="59">
@@ -5348,7 +5352,9 @@
       </c>
       <c r="H21" s="57"/>
       <c r="I21" s="57"/>
-      <c r="J21" s="60"/>
+      <c r="J21" t="s" s="59">
+        <v>62</v>
+      </c>
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
       <c r="M21" t="s" s="59">
@@ -5405,7 +5411,9 @@
       </c>
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
-      <c r="J22" s="60"/>
+      <c r="J22" t="s" s="59">
+        <v>62</v>
+      </c>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
       <c r="M22" t="s" s="59">

--- a/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.2.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.2.0.0/report-checklist.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="515">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -584,6 +584,9 @@
   <si>
     <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 504 Gateway Timeout</t>
   </si>
   <si>
     <t>Viene visualizzato un messaggio a video di non disponibilità del servizio. @@ -4024,7 +4027,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4035,12 +4038,12 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="3">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4051,12 +4054,12 @@
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="3">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4067,7 +4070,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5245,7 +5248,9 @@
       <c r="N19" t="s" s="59">
         <v>62</v>
       </c>
-      <c r="O19" s="60"/>
+      <c r="O19" t="s" s="59">
+        <v>102</v>
+      </c>
       <c r="P19" t="s" s="59">
         <v>62</v>
       </c>
@@ -5256,7 +5261,7 @@
         <v>63</v>
       </c>
       <c r="S19" t="s" s="59">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T19" t="s" s="59">
         <v>64</v>
@@ -5280,7 +5285,7 @@
         <v>74</v>
       </c>
       <c r="D20" t="s" s="55">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s" s="56">
         <v>101</v>
@@ -5304,7 +5309,9 @@
       <c r="N20" t="s" s="59">
         <v>62</v>
       </c>
-      <c r="O20" s="60"/>
+      <c r="O20" t="s" s="59">
+        <v>102</v>
+      </c>
       <c r="P20" t="s" s="59">
         <v>62</v>
       </c>
@@ -5315,7 +5322,7 @@
         <v>63</v>
       </c>
       <c r="S20" t="s" s="59">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T20" t="s" s="59">
         <v>64</v>
@@ -5339,7 +5346,7 @@
         <v>78</v>
       </c>
       <c r="D21" t="s" s="55">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s" s="56">
         <v>101</v>
@@ -5363,7 +5370,9 @@
       <c r="N21" t="s" s="59">
         <v>62</v>
       </c>
-      <c r="O21" s="60"/>
+      <c r="O21" t="s" s="59">
+        <v>102</v>
+      </c>
       <c r="P21" t="s" s="59">
         <v>62</v>
       </c>
@@ -5374,7 +5383,7 @@
         <v>63</v>
       </c>
       <c r="S21" t="s" s="59">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T21" t="s" s="59">
         <v>64</v>
@@ -5398,7 +5407,7 @@
         <v>82</v>
       </c>
       <c r="D22" t="s" s="55">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s" s="56">
         <v>101</v>
@@ -5422,7 +5431,9 @@
       <c r="N22" t="s" s="59">
         <v>62</v>
       </c>
-      <c r="O22" s="60"/>
+      <c r="O22" t="s" s="59">
+        <v>102</v>
+      </c>
       <c r="P22" t="s" s="59">
         <v>62</v>
       </c>
@@ -5433,7 +5444,7 @@
         <v>63</v>
       </c>
       <c r="S22" t="s" s="59">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T22" t="s" s="59">
         <v>64</v>
@@ -5457,22 +5468,22 @@
         <v>56</v>
       </c>
       <c r="D23" t="s" s="55">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s" s="56">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F23" s="57">
         <v>45764</v>
       </c>
       <c r="G23" t="s" s="58">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H23" t="s" s="58">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I23" t="s" s="58">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J23" t="s" s="59">
         <v>62</v>
@@ -5486,7 +5497,7 @@
         <v>62</v>
       </c>
       <c r="O23" t="s" s="59">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P23" t="s" s="59">
         <v>62</v>
@@ -5498,7 +5509,7 @@
         <v>63</v>
       </c>
       <c r="S23" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T23" t="s" s="59">
         <v>64</v>
@@ -5520,22 +5531,22 @@
         <v>56</v>
       </c>
       <c r="D24" t="s" s="55">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s" s="56">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F24" s="57">
         <v>45764</v>
       </c>
       <c r="G24" t="s" s="58">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H24" t="s" s="58">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I24" t="s" s="58">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J24" t="s" s="59">
         <v>62</v>
@@ -5549,7 +5560,7 @@
         <v>62</v>
       </c>
       <c r="O24" t="s" s="59">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P24" t="s" s="59">
         <v>62</v>
@@ -5561,7 +5572,7 @@
         <v>63</v>
       </c>
       <c r="S24" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T24" t="s" s="59">
         <v>64</v>
@@ -5583,22 +5594,22 @@
         <v>56</v>
       </c>
       <c r="D25" t="s" s="55">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s" s="56">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F25" s="57">
         <v>45764</v>
       </c>
       <c r="G25" t="s" s="58">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H25" t="s" s="58">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I25" t="s" s="58">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J25" t="s" s="59">
         <v>62</v>
@@ -5612,7 +5623,7 @@
         <v>62</v>
       </c>
       <c r="O25" t="s" s="59">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P25" t="s" s="59">
         <v>62</v>
@@ -5624,7 +5635,7 @@
         <v>63</v>
       </c>
       <c r="S25" t="s" s="59">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T25" t="s" s="59">
         <v>64</v>
@@ -5646,22 +5657,22 @@
         <v>56</v>
       </c>
       <c r="D26" t="s" s="55">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s" s="56">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F26" s="57">
         <v>45764</v>
       </c>
       <c r="G26" t="s" s="58">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H26" t="s" s="58">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I26" t="s" s="58">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J26" t="s" s="59">
         <v>62</v>
@@ -5675,7 +5686,7 @@
         <v>62</v>
       </c>
       <c r="O26" t="s" s="59">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P26" t="s" s="59">
         <v>62</v>
@@ -5687,7 +5698,7 @@
         <v>63</v>
       </c>
       <c r="S26" t="s" s="59">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T26" s="60"/>
       <c r="U26" s="59"/>
@@ -5707,22 +5718,22 @@
         <v>56</v>
       </c>
       <c r="D27" t="s" s="55">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s" s="56">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F27" s="57">
         <v>45764</v>
       </c>
       <c r="G27" t="s" s="58">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H27" t="s" s="58">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I27" t="s" s="58">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J27" t="s" s="59">
         <v>62</v>
@@ -5736,7 +5747,7 @@
         <v>62</v>
       </c>
       <c r="O27" t="s" s="59">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P27" t="s" s="59">
         <v>62</v>
@@ -5748,7 +5759,7 @@
         <v>63</v>
       </c>
       <c r="S27" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T27" t="s" s="59">
         <v>64</v>
@@ -5770,22 +5781,22 @@
         <v>56</v>
       </c>
       <c r="D28" t="s" s="55">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s" s="56">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F28" s="57">
         <v>45764</v>
       </c>
       <c r="G28" t="s" s="58">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H28" t="s" s="58">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I28" t="s" s="58">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J28" t="s" s="59">
         <v>62</v>
@@ -5799,7 +5810,7 @@
         <v>62</v>
       </c>
       <c r="O28" t="s" s="59">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P28" t="s" s="59">
         <v>62</v>
@@ -5811,7 +5822,7 @@
         <v>63</v>
       </c>
       <c r="S28" t="s" s="59">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T28" t="s" s="59">
         <v>64</v>
@@ -5833,22 +5844,22 @@
         <v>56</v>
       </c>
       <c r="D29" t="s" s="55">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s" s="56">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F29" s="57">
         <v>45764</v>
       </c>
       <c r="G29" t="s" s="58">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H29" t="s" s="58">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I29" t="s" s="58">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J29" t="s" s="59">
         <v>62</v>
@@ -5862,7 +5873,7 @@
         <v>62</v>
       </c>
       <c r="O29" t="s" s="59">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P29" t="s" s="59">
         <v>62</v>
@@ -5874,7 +5885,7 @@
         <v>63</v>
       </c>
       <c r="S29" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T29" t="s" s="59">
         <v>64</v>
@@ -5896,22 +5907,22 @@
         <v>56</v>
       </c>
       <c r="D30" t="s" s="55">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E30" t="s" s="56">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F30" s="57">
         <v>45764</v>
       </c>
       <c r="G30" t="s" s="58">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H30" t="s" s="58">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I30" t="s" s="58">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J30" t="s" s="59">
         <v>62</v>
@@ -5925,7 +5936,7 @@
         <v>62</v>
       </c>
       <c r="O30" t="s" s="59">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P30" t="s" s="59">
         <v>62</v>
@@ -5937,7 +5948,7 @@
         <v>63</v>
       </c>
       <c r="S30" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T30" t="s" s="59">
         <v>64</v>
@@ -5959,22 +5970,22 @@
         <v>74</v>
       </c>
       <c r="D31" t="s" s="55">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s" s="56">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F31" s="57">
         <v>45765</v>
       </c>
       <c r="G31" t="s" s="58">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H31" t="s" s="58">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I31" t="s" s="58">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J31" t="s" s="59">
         <v>62</v>
@@ -5988,7 +5999,7 @@
         <v>62</v>
       </c>
       <c r="O31" t="s" s="59">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P31" t="s" s="59">
         <v>62</v>
@@ -6022,22 +6033,22 @@
         <v>74</v>
       </c>
       <c r="D32" t="s" s="55">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E32" t="s" s="56">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F32" s="57">
         <v>45765</v>
       </c>
       <c r="G32" t="s" s="58">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H32" t="s" s="58">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I32" t="s" s="58">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J32" t="s" s="59">
         <v>62</v>
@@ -6051,7 +6062,7 @@
         <v>62</v>
       </c>
       <c r="O32" t="s" s="59">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P32" t="s" s="59">
         <v>62</v>
@@ -6063,7 +6074,7 @@
         <v>63</v>
       </c>
       <c r="S32" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T32" t="s" s="59">
         <v>64</v>
@@ -6085,22 +6096,22 @@
         <v>74</v>
       </c>
       <c r="D33" t="s" s="55">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E33" t="s" s="56">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F33" s="57">
         <v>45765</v>
       </c>
       <c r="G33" t="s" s="58">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H33" t="s" s="58">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I33" t="s" s="58">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J33" t="s" s="59">
         <v>62</v>
@@ -6114,7 +6125,7 @@
         <v>62</v>
       </c>
       <c r="O33" t="s" s="59">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P33" t="s" s="59">
         <v>62</v>
@@ -6126,7 +6137,7 @@
         <v>63</v>
       </c>
       <c r="S33" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T33" t="s" s="59">
         <v>64</v>
@@ -6148,22 +6159,22 @@
         <v>74</v>
       </c>
       <c r="D34" t="s" s="55">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E34" t="s" s="56">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F34" s="57">
         <v>45765</v>
       </c>
       <c r="G34" t="s" s="58">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H34" t="s" s="58">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I34" t="s" s="58">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J34" t="s" s="59">
         <v>62</v>
@@ -6177,7 +6188,7 @@
         <v>62</v>
       </c>
       <c r="O34" t="s" s="59">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P34" t="s" s="59">
         <v>62</v>
@@ -6189,7 +6200,7 @@
         <v>63</v>
       </c>
       <c r="S34" t="s" s="59">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T34" t="s" s="59">
         <v>64</v>
@@ -6211,22 +6222,22 @@
         <v>74</v>
       </c>
       <c r="D35" t="s" s="55">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s" s="56">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F35" s="57">
         <v>45765</v>
       </c>
       <c r="G35" t="s" s="58">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H35" t="s" s="58">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I35" t="s" s="58">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J35" t="s" s="59">
         <v>62</v>
@@ -6240,7 +6251,7 @@
         <v>62</v>
       </c>
       <c r="O35" t="s" s="59">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P35" t="s" s="59">
         <v>62</v>
@@ -6252,7 +6263,7 @@
         <v>63</v>
       </c>
       <c r="S35" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T35" t="s" s="59">
         <v>64</v>
@@ -6274,22 +6285,22 @@
         <v>74</v>
       </c>
       <c r="D36" t="s" s="55">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E36" t="s" s="56">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F36" s="57">
         <v>45765</v>
       </c>
       <c r="G36" t="s" s="58">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H36" t="s" s="58">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I36" t="s" s="58">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J36" t="s" s="59">
         <v>62</v>
@@ -6303,7 +6314,7 @@
         <v>62</v>
       </c>
       <c r="O36" t="s" s="59">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P36" t="s" s="59">
         <v>62</v>
@@ -6315,7 +6326,7 @@
         <v>63</v>
       </c>
       <c r="S36" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T36" t="s" s="59">
         <v>64</v>
@@ -6337,22 +6348,22 @@
         <v>74</v>
       </c>
       <c r="D37" t="s" s="55">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E37" t="s" s="56">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F37" s="57">
         <v>45765</v>
       </c>
       <c r="G37" t="s" s="58">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H37" t="s" s="58">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I37" t="s" s="58">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J37" t="s" s="59">
         <v>62</v>
@@ -6366,7 +6377,7 @@
         <v>62</v>
       </c>
       <c r="O37" t="s" s="59">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P37" t="s" s="59">
         <v>62</v>
@@ -6378,7 +6389,7 @@
         <v>63</v>
       </c>
       <c r="S37" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T37" t="s" s="59">
         <v>64</v>
@@ -6400,22 +6411,22 @@
         <v>74</v>
       </c>
       <c r="D38" t="s" s="55">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E38" t="s" s="56">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F38" s="57">
         <v>45765</v>
       </c>
       <c r="G38" t="s" s="58">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H38" t="s" s="58">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I38" t="s" s="58">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J38" t="s" s="59">
         <v>62</v>
@@ -6429,7 +6440,7 @@
         <v>62</v>
       </c>
       <c r="O38" t="s" s="59">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P38" t="s" s="59">
         <v>62</v>
@@ -6441,7 +6452,7 @@
         <v>63</v>
       </c>
       <c r="S38" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T38" t="s" s="59">
         <v>64</v>
@@ -6463,22 +6474,22 @@
         <v>74</v>
       </c>
       <c r="D39" t="s" s="55">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E39" t="s" s="56">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F39" s="57">
         <v>45765</v>
       </c>
       <c r="G39" t="s" s="58">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H39" t="s" s="58">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I39" t="s" s="58">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J39" t="s" s="59">
         <v>62</v>
@@ -6492,7 +6503,7 @@
         <v>62</v>
       </c>
       <c r="O39" t="s" s="59">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P39" t="s" s="59">
         <v>62</v>
@@ -6504,7 +6515,7 @@
         <v>63</v>
       </c>
       <c r="S39" t="s" s="59">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T39" t="s" s="59">
         <v>64</v>
@@ -6526,22 +6537,22 @@
         <v>74</v>
       </c>
       <c r="D40" t="s" s="55">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E40" t="s" s="56">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F40" s="57">
         <v>45765</v>
       </c>
       <c r="G40" t="s" s="58">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H40" t="s" s="58">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I40" t="s" s="58">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J40" t="s" s="59">
         <v>62</v>
@@ -6555,7 +6566,7 @@
         <v>62</v>
       </c>
       <c r="O40" t="s" s="59">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P40" t="s" s="59">
         <v>62</v>
@@ -6567,7 +6578,7 @@
         <v>63</v>
       </c>
       <c r="S40" t="s" s="59">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T40" t="s" s="59">
         <v>64</v>
@@ -6589,22 +6600,22 @@
         <v>78</v>
       </c>
       <c r="D41" t="s" s="55">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s" s="56">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F41" s="57">
         <v>45765</v>
       </c>
       <c r="G41" t="s" s="58">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H41" t="s" s="58">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I41" t="s" s="58">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J41" t="s" s="59">
         <v>62</v>
@@ -6618,7 +6629,7 @@
         <v>62</v>
       </c>
       <c r="O41" t="s" s="59">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P41" t="s" s="59">
         <v>62</v>
@@ -6652,22 +6663,22 @@
         <v>78</v>
       </c>
       <c r="D42" t="s" s="55">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E42" t="s" s="56">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F42" s="57">
         <v>45765</v>
       </c>
       <c r="G42" t="s" s="58">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H42" t="s" s="58">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I42" t="s" s="58">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J42" t="s" s="59">
         <v>62</v>
@@ -6681,7 +6692,7 @@
         <v>62</v>
       </c>
       <c r="O42" t="s" s="59">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P42" t="s" s="59">
         <v>62</v>
@@ -6693,7 +6704,7 @@
         <v>63</v>
       </c>
       <c r="S42" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T42" t="s" s="59">
         <v>64</v>
@@ -6715,22 +6726,22 @@
         <v>78</v>
       </c>
       <c r="D43" t="s" s="55">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E43" t="s" s="56">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F43" s="57">
         <v>45765</v>
       </c>
       <c r="G43" t="s" s="58">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H43" t="s" s="58">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I43" t="s" s="58">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J43" t="s" s="59">
         <v>62</v>
@@ -6744,7 +6755,7 @@
         <v>62</v>
       </c>
       <c r="O43" t="s" s="59">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P43" t="s" s="59">
         <v>62</v>
@@ -6756,7 +6767,7 @@
         <v>63</v>
       </c>
       <c r="S43" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T43" t="s" s="59">
         <v>64</v>
@@ -6778,22 +6789,22 @@
         <v>78</v>
       </c>
       <c r="D44" t="s" s="55">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E44" t="s" s="56">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F44" s="57">
         <v>45765</v>
       </c>
       <c r="G44" t="s" s="58">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H44" t="s" s="58">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I44" t="s" s="58">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J44" t="s" s="59">
         <v>62</v>
@@ -6807,7 +6818,7 @@
         <v>62</v>
       </c>
       <c r="O44" t="s" s="59">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P44" t="s" s="59">
         <v>62</v>
@@ -6819,7 +6830,7 @@
         <v>63</v>
       </c>
       <c r="S44" t="s" s="59">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T44" t="s" s="59">
         <v>64</v>
@@ -6841,22 +6852,22 @@
         <v>78</v>
       </c>
       <c r="D45" t="s" s="55">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E45" t="s" s="56">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F45" s="57">
         <v>45765</v>
       </c>
       <c r="G45" t="s" s="58">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H45" t="s" s="58">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I45" t="s" s="58">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J45" t="s" s="59">
         <v>62</v>
@@ -6870,7 +6881,7 @@
         <v>62</v>
       </c>
       <c r="O45" t="s" s="59">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P45" t="s" s="59">
         <v>62</v>
@@ -6882,7 +6893,7 @@
         <v>63</v>
       </c>
       <c r="S45" t="s" s="59">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T45" t="s" s="59">
         <v>64</v>
@@ -6904,22 +6915,22 @@
         <v>78</v>
       </c>
       <c r="D46" t="s" s="55">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E46" t="s" s="56">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F46" s="57">
         <v>45765</v>
       </c>
       <c r="G46" t="s" s="58">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H46" t="s" s="58">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I46" t="s" s="58">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J46" t="s" s="59">
         <v>62</v>
@@ -6933,7 +6944,7 @@
         <v>62</v>
       </c>
       <c r="O46" t="s" s="59">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P46" t="s" s="59">
         <v>62</v>
@@ -6945,7 +6956,7 @@
         <v>63</v>
       </c>
       <c r="S46" t="s" s="59">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T46" t="s" s="59">
         <v>64</v>
@@ -6967,22 +6978,22 @@
         <v>78</v>
       </c>
       <c r="D47" t="s" s="55">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E47" t="s" s="56">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F47" s="57">
         <v>45765</v>
       </c>
       <c r="G47" t="s" s="58">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H47" t="s" s="58">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I47" t="s" s="58">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J47" t="s" s="59">
         <v>62</v>
@@ -6996,7 +7007,7 @@
         <v>62</v>
       </c>
       <c r="O47" t="s" s="59">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P47" t="s" s="59">
         <v>62</v>
@@ -7008,7 +7019,7 @@
         <v>63</v>
       </c>
       <c r="S47" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T47" t="s" s="59">
         <v>64</v>
@@ -7030,22 +7041,22 @@
         <v>78</v>
       </c>
       <c r="D48" t="s" s="55">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E48" t="s" s="56">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F48" s="57">
         <v>45765</v>
       </c>
       <c r="G48" t="s" s="58">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H48" t="s" s="58">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I48" t="s" s="58">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J48" t="s" s="59">
         <v>62</v>
@@ -7059,7 +7070,7 @@
         <v>62</v>
       </c>
       <c r="O48" t="s" s="59">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P48" t="s" s="59">
         <v>62</v>
@@ -7071,7 +7082,7 @@
         <v>63</v>
       </c>
       <c r="S48" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T48" t="s" s="59">
         <v>64</v>
@@ -7093,22 +7104,22 @@
         <v>78</v>
       </c>
       <c r="D49" t="s" s="55">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E49" t="s" s="56">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F49" s="57">
         <v>45765</v>
       </c>
       <c r="G49" t="s" s="58">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H49" t="s" s="58">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I49" t="s" s="58">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J49" t="s" s="59">
         <v>62</v>
@@ -7122,7 +7133,7 @@
         <v>62</v>
       </c>
       <c r="O49" t="s" s="59">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P49" t="s" s="59">
         <v>62</v>
@@ -7134,7 +7145,7 @@
         <v>63</v>
       </c>
       <c r="S49" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T49" t="s" s="59">
         <v>64</v>
@@ -7156,22 +7167,22 @@
         <v>78</v>
       </c>
       <c r="D50" t="s" s="55">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E50" t="s" s="56">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F50" s="57">
         <v>45765</v>
       </c>
       <c r="G50" t="s" s="58">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H50" t="s" s="58">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I50" t="s" s="58">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J50" t="s" s="59">
         <v>62</v>
@@ -7185,7 +7196,7 @@
         <v>62</v>
       </c>
       <c r="O50" t="s" s="59">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P50" t="s" s="59">
         <v>62</v>
@@ -7197,7 +7208,7 @@
         <v>63</v>
       </c>
       <c r="S50" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T50" t="s" s="59">
         <v>64</v>
@@ -7219,22 +7230,22 @@
         <v>78</v>
       </c>
       <c r="D51" t="s" s="55">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E51" t="s" s="56">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F51" s="57">
         <v>45765</v>
       </c>
       <c r="G51" t="s" s="58">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H51" t="s" s="58">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I51" t="s" s="58">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J51" t="s" s="59">
         <v>62</v>
@@ -7248,7 +7259,7 @@
         <v>62</v>
       </c>
       <c r="O51" t="s" s="59">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P51" t="s" s="59">
         <v>62</v>
@@ -7260,7 +7271,7 @@
         <v>63</v>
       </c>
       <c r="S51" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T51" t="s" s="59">
         <v>64</v>
@@ -7282,22 +7293,22 @@
         <v>78</v>
       </c>
       <c r="D52" t="s" s="55">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E52" t="s" s="56">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F52" s="57">
         <v>45765</v>
       </c>
       <c r="G52" t="s" s="58">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H52" t="s" s="58">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I52" t="s" s="58">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J52" t="s" s="59">
         <v>62</v>
@@ -7311,7 +7322,7 @@
         <v>62</v>
       </c>
       <c r="O52" t="s" s="59">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P52" t="s" s="59">
         <v>62</v>
@@ -7323,7 +7334,7 @@
         <v>63</v>
       </c>
       <c r="S52" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T52" t="s" s="59">
         <v>64</v>
@@ -7345,22 +7356,22 @@
         <v>78</v>
       </c>
       <c r="D53" t="s" s="55">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E53" t="s" s="56">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F53" s="57">
         <v>45765</v>
       </c>
       <c r="G53" t="s" s="58">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H53" t="s" s="58">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I53" t="s" s="58">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J53" t="s" s="59">
         <v>62</v>
@@ -7374,7 +7385,7 @@
         <v>62</v>
       </c>
       <c r="O53" t="s" s="59">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P53" t="s" s="59">
         <v>62</v>
@@ -7386,7 +7397,7 @@
         <v>63</v>
       </c>
       <c r="S53" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T53" t="s" s="59">
         <v>64</v>
@@ -7408,22 +7419,22 @@
         <v>78</v>
       </c>
       <c r="D54" t="s" s="55">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E54" t="s" s="56">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F54" s="57">
         <v>45765</v>
       </c>
       <c r="G54" t="s" s="58">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H54" t="s" s="58">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I54" t="s" s="58">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J54" t="s" s="59">
         <v>62</v>
@@ -7437,7 +7448,7 @@
         <v>62</v>
       </c>
       <c r="O54" t="s" s="59">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P54" t="s" s="59">
         <v>62</v>
@@ -7449,7 +7460,7 @@
         <v>63</v>
       </c>
       <c r="S54" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T54" t="s" s="59">
         <v>64</v>
@@ -7471,22 +7482,22 @@
         <v>78</v>
       </c>
       <c r="D55" t="s" s="55">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E55" t="s" s="56">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F55" s="57">
         <v>45765</v>
       </c>
       <c r="G55" t="s" s="58">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H55" t="s" s="58">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I55" t="s" s="58">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J55" t="s" s="59">
         <v>62</v>
@@ -7500,7 +7511,7 @@
         <v>62</v>
       </c>
       <c r="O55" t="s" s="59">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P55" t="s" s="59">
         <v>62</v>
@@ -7512,7 +7523,7 @@
         <v>63</v>
       </c>
       <c r="S55" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T55" t="s" s="59">
         <v>64</v>
@@ -7534,22 +7545,22 @@
         <v>78</v>
       </c>
       <c r="D56" t="s" s="55">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E56" t="s" s="56">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F56" s="57">
         <v>45765</v>
       </c>
       <c r="G56" t="s" s="58">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H56" t="s" s="58">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I56" t="s" s="58">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J56" t="s" s="59">
         <v>62</v>
@@ -7563,7 +7574,7 @@
         <v>62</v>
       </c>
       <c r="O56" t="s" s="59">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P56" t="s" s="59">
         <v>62</v>
@@ -7575,7 +7586,7 @@
         <v>63</v>
       </c>
       <c r="S56" t="s" s="59">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T56" t="s" s="59">
         <v>64</v>
@@ -7597,22 +7608,22 @@
         <v>78</v>
       </c>
       <c r="D57" t="s" s="55">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E57" t="s" s="56">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F57" s="57">
         <v>45765</v>
       </c>
       <c r="G57" t="s" s="58">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H57" t="s" s="58">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I57" t="s" s="58">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J57" t="s" s="59">
         <v>62</v>
@@ -7626,7 +7637,7 @@
         <v>62</v>
       </c>
       <c r="O57" t="s" s="59">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P57" t="s" s="59">
         <v>62</v>
@@ -7638,7 +7649,7 @@
         <v>63</v>
       </c>
       <c r="S57" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T57" t="s" s="59">
         <v>64</v>
@@ -7660,22 +7671,22 @@
         <v>82</v>
       </c>
       <c r="D58" t="s" s="55">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E58" t="s" s="56">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F58" s="57">
         <v>45765</v>
       </c>
       <c r="G58" t="s" s="58">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H58" t="s" s="58">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I58" t="s" s="58">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J58" t="s" s="59">
         <v>62</v>
@@ -7689,7 +7700,7 @@
         <v>62</v>
       </c>
       <c r="O58" t="s" s="59">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P58" t="s" s="59">
         <v>62</v>
@@ -7723,22 +7734,22 @@
         <v>82</v>
       </c>
       <c r="D59" t="s" s="55">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E59" t="s" s="56">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F59" s="57">
         <v>45765</v>
       </c>
       <c r="G59" t="s" s="58">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H59" t="s" s="58">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I59" t="s" s="58">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J59" t="s" s="59">
         <v>62</v>
@@ -7752,7 +7763,7 @@
         <v>62</v>
       </c>
       <c r="O59" t="s" s="59">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P59" t="s" s="59">
         <v>62</v>
@@ -7764,7 +7775,7 @@
         <v>63</v>
       </c>
       <c r="S59" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T59" t="s" s="59">
         <v>64</v>
@@ -7786,22 +7797,22 @@
         <v>82</v>
       </c>
       <c r="D60" t="s" s="55">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E60" t="s" s="56">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F60" s="57">
         <v>45765</v>
       </c>
       <c r="G60" t="s" s="58">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H60" t="s" s="58">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I60" t="s" s="58">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J60" t="s" s="59">
         <v>62</v>
@@ -7815,7 +7826,7 @@
         <v>62</v>
       </c>
       <c r="O60" t="s" s="59">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P60" t="s" s="59">
         <v>62</v>
@@ -7827,7 +7838,7 @@
         <v>63</v>
       </c>
       <c r="S60" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T60" t="s" s="59">
         <v>64</v>
@@ -7849,22 +7860,22 @@
         <v>82</v>
       </c>
       <c r="D61" t="s" s="55">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E61" t="s" s="56">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F61" s="57">
         <v>45765</v>
       </c>
       <c r="G61" t="s" s="58">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H61" t="s" s="58">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I61" t="s" s="58">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J61" t="s" s="59">
         <v>62</v>
@@ -7878,7 +7889,7 @@
         <v>62</v>
       </c>
       <c r="O61" t="s" s="59">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P61" t="s" s="59">
         <v>62</v>
@@ -7890,7 +7901,7 @@
         <v>63</v>
       </c>
       <c r="S61" t="s" s="59">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T61" t="s" s="59">
         <v>64</v>
@@ -7912,22 +7923,22 @@
         <v>82</v>
       </c>
       <c r="D62" t="s" s="55">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E62" t="s" s="56">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F62" s="57">
         <v>45765</v>
       </c>
       <c r="G62" t="s" s="58">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H62" t="s" s="58">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I62" t="s" s="58">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J62" t="s" s="59">
         <v>62</v>
@@ -7941,7 +7952,7 @@
         <v>62</v>
       </c>
       <c r="O62" t="s" s="59">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P62" t="s" s="59">
         <v>62</v>
@@ -7953,7 +7964,7 @@
         <v>63</v>
       </c>
       <c r="S62" t="s" s="59">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T62" t="s" s="59">
         <v>64</v>
@@ -7975,22 +7986,22 @@
         <v>82</v>
       </c>
       <c r="D63" t="s" s="55">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E63" t="s" s="56">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F63" s="57">
         <v>45765</v>
       </c>
       <c r="G63" t="s" s="58">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H63" t="s" s="58">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I63" t="s" s="58">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J63" t="s" s="59">
         <v>62</v>
@@ -8004,7 +8015,7 @@
         <v>62</v>
       </c>
       <c r="O63" t="s" s="59">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P63" t="s" s="59">
         <v>62</v>
@@ -8016,7 +8027,7 @@
         <v>63</v>
       </c>
       <c r="S63" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T63" t="s" s="59">
         <v>64</v>
@@ -8038,22 +8049,22 @@
         <v>82</v>
       </c>
       <c r="D64" t="s" s="55">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E64" t="s" s="56">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F64" s="57">
         <v>45765</v>
       </c>
       <c r="G64" t="s" s="58">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H64" t="s" s="58">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I64" t="s" s="58">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J64" t="s" s="59">
         <v>62</v>
@@ -8067,7 +8078,7 @@
         <v>62</v>
       </c>
       <c r="O64" t="s" s="59">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P64" t="s" s="59">
         <v>62</v>
@@ -8079,7 +8090,7 @@
         <v>63</v>
       </c>
       <c r="S64" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T64" t="s" s="59">
         <v>64</v>
@@ -8101,22 +8112,22 @@
         <v>82</v>
       </c>
       <c r="D65" t="s" s="55">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E65" t="s" s="56">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F65" s="57">
         <v>45765</v>
       </c>
       <c r="G65" t="s" s="58">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H65" t="s" s="58">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I65" t="s" s="58">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J65" t="s" s="59">
         <v>62</v>
@@ -8130,7 +8141,7 @@
         <v>62</v>
       </c>
       <c r="O65" t="s" s="59">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P65" t="s" s="59">
         <v>62</v>
@@ -8142,7 +8153,7 @@
         <v>63</v>
       </c>
       <c r="S65" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T65" t="s" s="59">
         <v>64</v>
@@ -8164,22 +8175,22 @@
         <v>82</v>
       </c>
       <c r="D66" t="s" s="55">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E66" t="s" s="56">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F66" s="57">
         <v>45765</v>
       </c>
       <c r="G66" t="s" s="58">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H66" t="s" s="58">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I66" t="s" s="58">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J66" t="s" s="59">
         <v>62</v>
@@ -8193,7 +8204,7 @@
         <v>62</v>
       </c>
       <c r="O66" t="s" s="59">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P66" t="s" s="59">
         <v>62</v>
@@ -8205,7 +8216,7 @@
         <v>63</v>
       </c>
       <c r="S66" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T66" t="s" s="59">
         <v>64</v>
@@ -8227,22 +8238,22 @@
         <v>82</v>
       </c>
       <c r="D67" t="s" s="55">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E67" t="s" s="56">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F67" s="57">
         <v>45765</v>
       </c>
       <c r="G67" t="s" s="58">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H67" t="s" s="58">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I67" t="s" s="58">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J67" t="s" s="59">
         <v>62</v>
@@ -8256,7 +8267,7 @@
         <v>62</v>
       </c>
       <c r="O67" t="s" s="59">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P67" t="s" s="59">
         <v>62</v>
@@ -8268,7 +8279,7 @@
         <v>63</v>
       </c>
       <c r="S67" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T67" t="s" s="59">
         <v>64</v>
@@ -8290,22 +8301,22 @@
         <v>82</v>
       </c>
       <c r="D68" t="s" s="55">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E68" t="s" s="56">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F68" s="57">
         <v>45765</v>
       </c>
       <c r="G68" t="s" s="58">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H68" t="s" s="58">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I68" t="s" s="58">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J68" t="s" s="59">
         <v>62</v>
@@ -8319,7 +8330,7 @@
         <v>62</v>
       </c>
       <c r="O68" t="s" s="59">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P68" t="s" s="59">
         <v>62</v>
@@ -8331,7 +8342,7 @@
         <v>63</v>
       </c>
       <c r="S68" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T68" t="s" s="59">
         <v>64</v>
@@ -8353,22 +8364,22 @@
         <v>82</v>
       </c>
       <c r="D69" t="s" s="55">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E69" t="s" s="56">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F69" s="57">
         <v>45765</v>
       </c>
       <c r="G69" t="s" s="58">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H69" t="s" s="58">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I69" t="s" s="58">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J69" t="s" s="59">
         <v>62</v>
@@ -8382,7 +8393,7 @@
         <v>62</v>
       </c>
       <c r="O69" t="s" s="59">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P69" t="s" s="59">
         <v>62</v>
@@ -8394,7 +8405,7 @@
         <v>63</v>
       </c>
       <c r="S69" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T69" t="s" s="59">
         <v>64</v>
@@ -8416,22 +8427,22 @@
         <v>82</v>
       </c>
       <c r="D70" t="s" s="55">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E70" t="s" s="56">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F70" s="57">
         <v>45765</v>
       </c>
       <c r="G70" t="s" s="58">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H70" t="s" s="58">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I70" t="s" s="58">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J70" t="s" s="59">
         <v>62</v>
@@ -8445,7 +8456,7 @@
         <v>62</v>
       </c>
       <c r="O70" t="s" s="59">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P70" t="s" s="59">
         <v>62</v>
@@ -8457,7 +8468,7 @@
         <v>63</v>
       </c>
       <c r="S70" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T70" t="s" s="59">
         <v>64</v>
@@ -8479,22 +8490,22 @@
         <v>82</v>
       </c>
       <c r="D71" t="s" s="55">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E71" t="s" s="56">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F71" s="57">
         <v>45765</v>
       </c>
       <c r="G71" t="s" s="58">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H71" t="s" s="58">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I71" t="s" s="58">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J71" t="s" s="59">
         <v>62</v>
@@ -8508,7 +8519,7 @@
         <v>62</v>
       </c>
       <c r="O71" t="s" s="59">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P71" t="s" s="59">
         <v>62</v>
@@ -8520,7 +8531,7 @@
         <v>63</v>
       </c>
       <c r="S71" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T71" t="s" s="59">
         <v>64</v>
@@ -8542,22 +8553,22 @@
         <v>82</v>
       </c>
       <c r="D72" t="s" s="55">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E72" t="s" s="56">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F72" s="57">
         <v>45765</v>
       </c>
       <c r="G72" t="s" s="58">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H72" t="s" s="58">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I72" t="s" s="58">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J72" t="s" s="59">
         <v>62</v>
@@ -8571,7 +8582,7 @@
         <v>62</v>
       </c>
       <c r="O72" t="s" s="59">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P72" t="s" s="59">
         <v>62</v>
@@ -8583,7 +8594,7 @@
         <v>63</v>
       </c>
       <c r="S72" t="s" s="59">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T72" t="s" s="59">
         <v>64</v>
@@ -8605,22 +8616,22 @@
         <v>82</v>
       </c>
       <c r="D73" t="s" s="55">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E73" t="s" s="56">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F73" s="57">
         <v>45765</v>
       </c>
       <c r="G73" t="s" s="58">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H73" t="s" s="58">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I73" t="s" s="58">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J73" t="s" s="59">
         <v>62</v>
@@ -8634,7 +8645,7 @@
         <v>62</v>
       </c>
       <c r="O73" t="s" s="59">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P73" t="s" s="59">
         <v>62</v>
@@ -8646,7 +8657,7 @@
         <v>63</v>
       </c>
       <c r="S73" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T73" t="s" s="59">
         <v>64</v>
@@ -8668,10 +8679,10 @@
         <v>56</v>
       </c>
       <c r="D74" t="s" s="55">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E74" t="s" s="56">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
@@ -8681,10 +8692,10 @@
         <v>63</v>
       </c>
       <c r="K74" t="s" s="59">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L74" t="s" s="59">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M74" s="60"/>
       <c r="N74" s="60"/>
@@ -8711,10 +8722,10 @@
         <v>56</v>
       </c>
       <c r="D75" t="s" s="55">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E75" t="s" s="56">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
@@ -8724,10 +8735,10 @@
         <v>63</v>
       </c>
       <c r="K75" t="s" s="59">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L75" t="s" s="59">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M75" s="60"/>
       <c r="N75" s="60"/>
@@ -8754,22 +8765,22 @@
         <v>78</v>
       </c>
       <c r="D76" t="s" s="55">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E76" t="s" s="56">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F76" s="57">
         <v>45765</v>
       </c>
       <c r="G76" t="s" s="58">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H76" t="s" s="58">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I76" t="s" s="58">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J76" t="s" s="59">
         <v>62</v>
@@ -8813,22 +8824,22 @@
         <v>78</v>
       </c>
       <c r="D77" t="s" s="55">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E77" t="s" s="56">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F77" s="57">
         <v>45765</v>
       </c>
       <c r="G77" t="s" s="58">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H77" t="s" s="58">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I77" t="s" s="58">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J77" t="s" s="59">
         <v>62</v>
@@ -8872,22 +8883,22 @@
         <v>82</v>
       </c>
       <c r="D78" t="s" s="55">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E78" t="s" s="56">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F78" s="57">
         <v>45765</v>
       </c>
       <c r="G78" t="s" s="58">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H78" t="s" s="58">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I78" t="s" s="58">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J78" t="s" s="59">
         <v>62</v>
@@ -8931,22 +8942,22 @@
         <v>82</v>
       </c>
       <c r="D79" t="s" s="55">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E79" t="s" s="56">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F79" s="57">
         <v>45765</v>
       </c>
       <c r="G79" t="s" s="58">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H79" t="s" s="58">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I79" t="s" s="58">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J79" t="s" s="59">
         <v>62</v>
@@ -8990,22 +9001,22 @@
         <v>74</v>
       </c>
       <c r="D80" t="s" s="55">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E80" t="s" s="56">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F80" s="57">
         <v>45765</v>
       </c>
       <c r="G80" t="s" s="58">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H80" t="s" s="58">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I80" t="s" s="58">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J80" t="s" s="59">
         <v>62</v>
@@ -9049,22 +9060,22 @@
         <v>74</v>
       </c>
       <c r="D81" t="s" s="55">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E81" t="s" s="56">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F81" s="57">
         <v>45765</v>
       </c>
       <c r="G81" t="s" s="58">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H81" t="s" s="58">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I81" t="s" s="58">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J81" t="s" s="59">
         <v>62</v>
@@ -9108,22 +9119,22 @@
         <v>56</v>
       </c>
       <c r="D82" t="s" s="55">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E82" t="s" s="56">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F82" s="57">
         <v>45764</v>
       </c>
       <c r="G82" t="s" s="58">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H82" t="s" s="58">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I82" t="s" s="58">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J82" t="s" s="59">
         <v>62</v>
@@ -9167,22 +9178,22 @@
         <v>82</v>
       </c>
       <c r="D83" t="s" s="55">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E83" t="s" s="59">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F83" s="57">
         <v>45765</v>
       </c>
       <c r="G83" t="s" s="58">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H83" t="s" s="55">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I83" t="s" s="59">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J83" t="s" s="59">
         <v>62</v>
@@ -9196,7 +9207,7 @@
         <v>62</v>
       </c>
       <c r="O83" t="s" s="59">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P83" t="s" s="59">
         <v>62</v>
@@ -9208,7 +9219,7 @@
         <v>63</v>
       </c>
       <c r="S83" t="s" s="59">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T83" t="s" s="59">
         <v>64</v>
@@ -9230,22 +9241,22 @@
         <v>78</v>
       </c>
       <c r="D84" t="s" s="55">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E84" t="s" s="59">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F84" s="57">
         <v>45765</v>
       </c>
       <c r="G84" t="s" s="58">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H84" t="s" s="55">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I84" t="s" s="59">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J84" t="s" s="59">
         <v>62</v>
@@ -9259,7 +9270,7 @@
         <v>62</v>
       </c>
       <c r="O84" t="s" s="59">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P84" t="s" s="59">
         <v>62</v>
@@ -9271,7 +9282,7 @@
         <v>63</v>
       </c>
       <c r="S84" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T84" t="s" s="59">
         <v>64</v>
@@ -9293,22 +9304,22 @@
         <v>56</v>
       </c>
       <c r="D85" t="s" s="55">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E85" t="s" s="56">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F85" s="57">
         <v>45764</v>
       </c>
       <c r="G85" t="s" s="63">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H85" t="s" s="55">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I85" t="s" s="58">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J85" t="s" s="59">
         <v>62</v>
@@ -9322,7 +9333,7 @@
         <v>62</v>
       </c>
       <c r="O85" t="s" s="59">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P85" t="s" s="59">
         <v>62</v>
@@ -9334,7 +9345,7 @@
         <v>63</v>
       </c>
       <c r="S85" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T85" t="s" s="59">
         <v>64</v>
@@ -9356,22 +9367,22 @@
         <v>74</v>
       </c>
       <c r="D86" t="s" s="55">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E86" t="s" s="59">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F86" s="57">
         <v>45765</v>
       </c>
       <c r="G86" t="s" s="58">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H86" t="s" s="55">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I86" t="s" s="59">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J86" t="s" s="59">
         <v>62</v>
@@ -9385,7 +9396,7 @@
         <v>62</v>
       </c>
       <c r="O86" t="s" s="59">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P86" t="s" s="59">
         <v>62</v>
@@ -9397,7 +9408,7 @@
         <v>63</v>
       </c>
       <c r="S86" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T86" t="s" s="59">
         <v>64</v>
@@ -9419,22 +9430,22 @@
         <v>82</v>
       </c>
       <c r="D87" t="s" s="55">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E87" t="s" s="59">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F87" s="57">
         <v>45765</v>
       </c>
       <c r="G87" t="s" s="58">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H87" t="s" s="55">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I87" t="s" s="59">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J87" t="s" s="59">
         <v>62</v>
@@ -9448,7 +9459,7 @@
         <v>62</v>
       </c>
       <c r="O87" t="s" s="59">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P87" t="s" s="59">
         <v>62</v>
@@ -9460,7 +9471,7 @@
         <v>63</v>
       </c>
       <c r="S87" t="s" s="59">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T87" t="s" s="59">
         <v>64</v>
@@ -23516,7 +23527,7 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="70">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -23525,7 +23536,7 @@
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="70">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -23534,7 +23545,7 @@
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="70">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -23543,7 +23554,7 @@
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="70">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -23552,7 +23563,7 @@
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="70">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -23561,7 +23572,7 @@
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="70">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -23570,7 +23581,7 @@
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="70">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -23579,7 +23590,7 @@
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="70">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -23629,23 +23640,23 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s" s="72">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B1" t="s" s="72">
         <v>33</v>
       </c>
       <c r="C1" t="s" s="72">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D1" t="s" s="72">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E1" s="73"/>
       <c r="F1" t="s" s="74">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G1" t="s" s="75">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -23653,13 +23664,13 @@
         <v>56</v>
       </c>
       <c r="B2" t="s" s="77">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s" s="78">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D2" t="s" s="78">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="24"/>
@@ -23670,13 +23681,13 @@
         <v>74</v>
       </c>
       <c r="B3" t="s" s="77">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C3" t="s" s="78">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D3" t="s" s="78">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="8"/>
@@ -23687,13 +23698,13 @@
         <v>78</v>
       </c>
       <c r="B4" t="s" s="77">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C4" s="79">
         <v>446.447</v>
       </c>
       <c r="D4" t="s" s="80">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="8"/>
@@ -23701,16 +23712,16 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s" s="76">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B5" t="s" s="77">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C5" t="s" s="78">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D5" t="s" s="78">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="8"/>
@@ -23718,16 +23729,16 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s" s="76">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B6" t="s" s="77">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C6" t="s" s="78">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D6" t="s" s="80">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="8"/>
@@ -23735,16 +23746,16 @@
     </row>
     <row r="7" ht="14.5" customHeight="1">
       <c r="A7" t="s" s="76">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B7" t="s" s="77">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C7" t="s" s="78">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D7" t="s" s="80">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="8"/>
@@ -23755,13 +23766,13 @@
         <v>82</v>
       </c>
       <c r="B8" t="s" s="77">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C8" t="s" s="78">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D8" t="s" s="80">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="8"/>
@@ -23769,16 +23780,16 @@
     </row>
     <row r="9" ht="14.5" customHeight="1">
       <c r="A9" t="s" s="76">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B9" t="s" s="77">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C9" t="s" s="78">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D9" t="s" s="80">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="8"/>
@@ -23786,16 +23797,16 @@
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" t="s" s="76">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B10" t="s" s="77">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C10" t="s" s="80">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D10" t="s" s="78">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="8"/>
@@ -23803,16 +23814,16 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s" s="76">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B11" t="s" s="77">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C11" t="s" s="78">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D11" t="s" s="80">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="8"/>
@@ -23883,7 +23894,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="87">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s" s="88">
         <v>63</v>

--- a/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.2.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.2.0.0/report-checklist.xlsx
@@ -292,13 +292,13 @@
 </t>
   </si>
   <si>
-    <t>2025-04-17T07:47:10Z</t>
-  </si>
-  <si>
-    <t>7ef31d4c27c550a922af82ae2513f3b4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.d9999a1039^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T07:53:49Z</t>
+  </si>
+  <si>
+    <t>ce44f48998f9cc0ba5a7fb19083acae3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.aa2c7c645a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -400,10 +400,10 @@
     </r>
   </si>
   <si>
-    <t>2025-04-17T07:57:23Z</t>
-  </si>
-  <si>
-    <t>396038ee88be0ea80083df240f9f56de</t>
+    <t>2025-05-07T07:59:02Z</t>
+  </si>
+  <si>
+    <t>4cc50eca7d638eb1efacd6bdc16b88a6</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
@@ -426,10 +426,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
   </si>
   <si>
-    <t>2025-04-18T14:23:04Z</t>
-  </si>
-  <si>
-    <t>77f541f899cb09a4f7f22aac921c4a9f</t>
+    <t>2025-05-07T08:09:51Z</t>
+  </si>
+  <si>
+    <t>ddfcae7b77c717633b93f5beafca639d</t>
   </si>
   <si>
     <t>RAD</t>
@@ -438,10 +438,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
   </si>
   <si>
-    <t>2025-04-18T13:05:14Z</t>
-  </si>
-  <si>
-    <t>231fa3f23022153094c38dc185adca3e</t>
+    <t>2025-05-07T08:13:07Z</t>
+  </si>
+  <si>
+    <t>c9ea4d59005e8ef1b6b6d1aa0ee821dc</t>
   </si>
   <si>
     <t>RSA</t>
@@ -450,10 +450,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
-    <t>2025-04-18T05:37:44Z</t>
-  </si>
-  <si>
-    <t>e891226904c5dfaaaf287dbdcef128dd</t>
+    <t>2025-05-07T08:15:02Z</t>
+  </si>
+  <si>
+    <t>67bf3e0520772363c66f7ec412830b4f</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LAB_KO</t>
@@ -543,10 +543,10 @@
     </r>
   </si>
   <si>
-    <t>2025-04-17T08:06:12Z</t>
-  </si>
-  <si>
-    <t>8766b83c213eebfcdd3e0328b30f27f9</t>
+    <t>2025-05-07T08:16:48Z</t>
+  </si>
+  <si>
+    <t>4dad1f95636d5d3331e8f1dc3b736238</t>
   </si>
   <si>
     <t>"type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il campo action_id non è corretto","status":403,"instance":"/jwt-mandatory-field-malformed"</t>
@@ -555,28 +555,28 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
   </si>
   <si>
-    <t>2025-04-18T14:25:32Z</t>
-  </si>
-  <si>
-    <t>2344e9a5de39f2070738f5b81e400860</t>
+    <t>2025-05-07T08:18:34Z</t>
+  </si>
+  <si>
+    <t>630086c0d554fa06057d3b2892536758</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
-    <t>2025-04-18T13:08:33Z</t>
-  </si>
-  <si>
-    <t>03e8d7974d8677e184ba1cdf773a1e8f</t>
+    <t>2025-05-07T08:19:42Z</t>
+  </si>
+  <si>
+    <t>47210c241055712c06ad6d7a5231b32a</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
-    <t>2025-04-18T05:52:58Z</t>
-  </si>
-  <si>
-    <t>cc881ab8c0c11dcaee99e1b8010970e5</t>
+    <t>2025-05-07T08:22:24Z</t>
+  </si>
+  <si>
+    <t>3e51a22de8ecf15be881b9e989299af2</t>
   </si>
   <si>
     <t>VALIDAZIONE_LAB_TIMEOUT</t>
@@ -610,13 +610,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-17T08:34:32Z</t>
-  </si>
-  <si>
-    <t>8198fe2a6b10ced5d2c15d161bafd348</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.7b6debe97e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T08:29:21Z</t>
+  </si>
+  <si>
+    <t>91514a1cbe93168d5f8e4e46c2593eea</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.8dc9b920da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-12| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ],[W002 | Si consiglia di valorizzare l'elemento organizer[CLUSTER]/code]","status":422,"instance":"/validation/error"</t>
@@ -636,13 +636,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-17T08:41:16Z</t>
-  </si>
-  <si>
-    <t>05d348a5ea6812c8e4ab2971ad1a15de</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.be8de01efa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T08:32:57Z</t>
+  </si>
+  <si>
+    <t>1ac5738b926778d4c893051ac732aa1d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.8b8fb7e917^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-15| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'],[W002 | Si consiglia di valorizzare l'elemento organizer[CLUSTER]/code]","status":422,"instance":"/validation/error"</t>
@@ -655,13 +655,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-17T08:46:40Z</t>
-  </si>
-  <si>
-    <t>4e54a3a25fcd633e938a477d18e74e9d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.7efabdefb6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T08:34:09Z</t>
+  </si>
+  <si>
+    <t>52cb64859c930111ffd3d796380cf11a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.f8aa5f0f9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: NB]","status":400,"instance":"/validation/error"</t>
@@ -681,13 +681,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-17T12:59:36Z</t>
-  </si>
-  <si>
-    <t>5dd37b790ba92183a7dbe3b22c784195</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.f11e6f1ab8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T08:35:20Z</t>
+  </si>
+  <si>
+    <t>9b71557c3caf582dfa383ec241519509</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.ada1fc8c32^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.7 v2.1.0, Codes: Z]","status":400,"instance":"/validation/error"</t>
@@ -700,13 +700,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-17T08:53:24Z</t>
-  </si>
-  <si>
-    <t>fca8b9020908f50e971b09ffad7acd26</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.e028d2c04d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T08:36:40Z</t>
+  </si>
+  <si>
+    <t>ed4ab80a38568de655d6da36dace9960</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.8f7c22f7d8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":priorityCode}'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id}' is expected.","status":400,"instance":"/validation/error"</t>
@@ -719,13 +719,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-17T08:57:15Z</t>
-  </si>
-  <si>
-    <t>6f8d8c2c4a9d4111b56c484bee513941</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.d945b18e6f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T12:25:56Z</t>
+  </si>
+  <si>
+    <t>74a167ce5d82e52e9a113d7c93bcf926</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.191bb41fc1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b1| L'elemento code della section DEVE essere valorizzato con uno dei seguenti codici LOINC individuati:\n\t\t\t\t\t\t18717-9 BANCA DEL SANGUE\n\t\t\t\t\t\t18718-7 MARCATORI CELLULARI \n\t\t\t\t\t\t18719-5 CHIMICA\n\t\t\t\t\t\t18720-3\tCOAGULAZIONE\n\t\t\t\t\t\t18721-1 MONITORAGGIO TERAPEUTICO DEI FARMACI\n\t\t\t\t\t\t18722-9 FERTILITÀ\n\t\t\t\t\t\t18723-7 EMATOLOGIA\n\t\t\t\t\t\t18724-5 HLA\n\t\t\t\t\t\t18725-2 MICROBIOLOGIA\n\t\t\t\t\t\t18727-8 SEROLOGIA\n\t\t\t\t\t\t18728-6 TOSSICOLOGIA\n\t\t\t\t\t\t18729-4 ESAMI DELLE URINE\n\t\t\t\t\t\t18767-4 EMOGASANALISI\n\t\t\t\t\t\t18768-2 CONTE CELLULARE+DIFFERENZIALE\n\t\t\t\t\t\t18769-0 SUSCETTIBILITÀ ANTIMICROBICA\n\t\t\t\t\t\t26435-8 PATOLOGIA MOLECOLARE\n\t\t\t\t\t\t26436-6 ESAMI DI LABORATORIO\n\t\t\t\t\t\t26437-4 TEST DI SENSIBILITÀ A SOSTANZE CHIMICHE\n\t\t\t\t\t\t26438-2 CITOLOGIA\n\t\t\t\t\t\t18716-1 ALLERGOLOGIA\n\t\t\t\t\t\t26439-0 PATOLOGIA CHIRURGICA],[W002 | Si consiglia di valorizzare l'elemento organizer[CLUSTER]/code]","status":422,"instance":"/validation/error"</t>
@@ -738,13 +738,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-17T12:11:40Z</t>
-  </si>
-  <si>
-    <t>e10f4a60497b400f6986711eb48b3019</t>
-  </si>
-  <si>
-    <t>.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.5d782fd004^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T12:27:52Z</t>
+  </si>
+  <si>
+    <t>eff0153243ee49748d7677d0b2beeb1b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.79c5719976^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b10| L'elemento specimen deve contenere l'elemento specimenRole/specimenPlayingEntity ],[ERRORE-b11| L'elemento specimen/specimenRole/specimenPlayingEntity deve contenere l'elemento 'code'],[W002 | Si consiglia di valorizzare l'elemento organizer[CLUSTER]/code]","status":422,"instance":"/validation/error"</t>
@@ -757,13 +757,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-17T12:18:33Z</t>
-  </si>
-  <si>
-    <t>202c42e226d2e3b637ab9466d9542588</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.25c9b8001b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T12:29:33Z</t>
+  </si>
+  <si>
+    <t>c6062efd7fbec9ce414884e8dcc95f24</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.53288e1bc8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b19| L’elemento organizer di tipo 'BATTERY' (@classCode='BATTERY') DEVE contenere l’elemento organizer/code.\n\t\t\t],[W002 | Si consiglia di valorizzare l'elemento organizer[CLUSTER]/code]","status":422,"instance":"/validation/error"</t>
@@ -776,13 +776,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2025-04-18T14:29:08Z</t>
-  </si>
-  <si>
-    <t>5a846c126d6bba05f8f675dc11eac1f0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.c3a5ea5910^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T12:31:01Z</t>
+  </si>
+  <si>
+    <t>a82272dd9d5122fe39deda9fb6b85567</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.31aa007c8c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il codice fiscale nel campo person_id non è corretto","status":403,"instance":"/jwt-mandatory-field-malformed"</t>
@@ -795,13 +795,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2025-04-18T14:32:13Z</t>
-  </si>
-  <si>
-    <t>c4845b8fef8fe0d185f21f2cdfbf2aa3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.745772ebe4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T12:32:25Z</t>
+  </si>
+  <si>
+    <t>4f222708cb4a4ec4000d793ad9df3840</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.c0011dfb3e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]","status":422,"instance":"/validation/error"</t>
@@ -814,13 +814,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2025-04-18T14:35:04Z</t>
-  </si>
-  <si>
-    <t>5b28189e07fd1ff9192d80fe2823c1cb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.46aa196192^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T12:33:35Z</t>
+  </si>
+  <si>
+    <t>b89bbd6c4d7c5ebf7f80e3532045499e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.3afdeb9beb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']","status":422,"instance":"/validation/error"</t>
@@ -833,13 +833,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2025-04-18T14:37:24Z</t>
-  </si>
-  <si>
-    <t>f964c1aba9e4cbc3a7efa401b9f4e674</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.da86ad29b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T12:34:43Z</t>
+  </si>
+  <si>
+    <t>430506c2b1e298b917b5b15d48a154de</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.8a65cedff1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: ND]","status":400,"instance":"/validation/error"</t>
@@ -852,13 +852,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2025-04-18T14:40:00Z</t>
-  </si>
-  <si>
-    <t>55c7f44a7d8361f22646785b3070749b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.009d269f35^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T12:36:13Z</t>
+  </si>
+  <si>
+    <t>568177188a25881c656a275eed17fe80</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.f079d3eb77^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b5| Sezione Condizioni del paziente e diagnosi alla dimissione: la sezione DEVE essere presente],[ERRORE-b6| Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione DEVE contenere l'elemento 'text'],[W003|  Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione PUO' contenere l'elemento 'entry' ]","status":422,"instance":"/validation/error"</t>
@@ -871,13 +871,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2025-04-18T14:42:26Z</t>
-  </si>
-  <si>
-    <t>f9979645f8032805c0e87953bfb464d6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.1c6c7faada^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T12:43:36Z</t>
+  </si>
+  <si>
+    <t>b048ad1c26e097081dd8640be9f4f962</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.0e2b60bdaa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b4| Sezione Decorso Ospedaliero: La sezione deve contenere l'elemento 'text']","status":422,"instance":"/validation/error"</t>
@@ -890,13 +890,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2025-04-18T14:44:44Z</t>
-  </si>
-  <si>
-    <t>d47daf95ffec2c2fa2b4bfdc730dee2a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.9991f4b66b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T12:44:58Z</t>
+  </si>
+  <si>
+    <t>409c35211fce31d601070ad1aadf4588</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.6ffa86aafc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b26| Sotto-sezione Anamnesi: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato]","status":422,"instance":"/validation/error"</t>
@@ -909,13 +909,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2025-04-18T14:48:03Z</t>
-  </si>
-  <si>
-    <t>c29a9abc17de46e1cbaeb990f5398d80</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.8d73ffbca6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T12:47:06Z</t>
+  </si>
+  <si>
+    <t>87b24227460ad3090b2c019a8c726749</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.c0dbee0051^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b94|Sezione Terapia farmacologica alla dimissione: section/entry/substanceAdministration/effectiveTime deve avere l'elemento 'low' valorizzato ]","status":422,"instance":"/validation/error"</t>
@@ -928,13 +928,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2025-04-18T14:50:22Z</t>
-  </si>
-  <si>
-    <t>5c9a7a1ff6bb507d206c102deec6557e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.7c9b3de2d6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T12:52:37Z</t>
+  </si>
+  <si>
+    <t>ec025fff22a39ed20efbd50593bb1047</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.4ee419a63d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 999999999]","status":400,"instance":"/validation/error"</t>
@@ -947,13 +947,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2025-04-18T14:53:05Z</t>
-  </si>
-  <si>
-    <t>243714e0acb25eca339e99db0ae6f7df</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e719a52708^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T12:54:01Z</t>
+  </si>
+  <si>
+    <t>41d7fc5adfbd616be96d03c45dbe2609</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.64f8d553ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.112 v2.1.0, Codes: 999999999]","status":400,"instance":"/validation/error"</t>
@@ -966,13 +966,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:13:21Z</t>
-  </si>
-  <si>
-    <t>4684232774cd7bcf6459641caf2d7f9e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.5b6e35e6ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:00:45Z</t>
+  </si>
+  <si>
+    <t>18793ec63875eda5daa8a14d76a3584b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.dc59e89c7c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
@@ -982,13 +982,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:16:47Z</t>
-  </si>
-  <si>
-    <t>350f7c31cbafef7ed436a3213a6cc5fa</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.2c3b9238ba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:03:02Z</t>
+  </si>
+  <si>
+    <t>ef19fa01b3495942369d618a1e6bed11</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c77d6345aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ]","status":422,"instance":"/validation/error"</t>
@@ -1001,13 +1001,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:19:55Z</t>
-  </si>
-  <si>
-    <t>6476bb7f56b4118d2a239c3f87336e58</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.1d619c7e9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:04:20Z</t>
+  </si>
+  <si>
+    <t>376074710e71b29a7764e223faad1aea</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.51e39a68eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ],[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']","status":422,"instance":"/validation/error"</t>
@@ -1020,13 +1020,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:22:51Z</t>
-  </si>
-  <si>
-    <t>1c29ca82ade1bf3a21d723a1a06bd662</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.fa47675ae4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:05:58Z</t>
+  </si>
+  <si>
+    <t>7607314e950b802f0df50cbdc076622d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ab5985def6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
@@ -1036,13 +1036,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:27:58Z</t>
-  </si>
-  <si>
-    <t>eee7dfd1103188742ed0f0862a1554ce</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.1210a7c2eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:07:24Z</t>
+  </si>
+  <si>
+    <t>da9bd03cc5af517975725536c8ba8cfb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.cd663e4846^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.2.7 v1.0.0, Codes: 9999999999]","status":400,"instance":"/validation/error"</t>
@@ -1055,13 +1055,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:31:31Z</t>
-  </si>
-  <si>
-    <t>220023f67e9423bd2eae835e220cf6aa</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.a7f1a1a034^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:09:20Z</t>
+  </si>
+  <si>
+    <t>66f56045d836defc554e0c089f70aff3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.6a178854e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
@@ -1071,13 +1071,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:34:13Z</t>
-  </si>
-  <si>
-    <t>5d0088a005220bd485585227cf062b65</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.b93dc29637^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:10:36Z</t>
+  </si>
+  <si>
+    <t>6a9ec59fcf1692b3c2442b0ebcd5420a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.aad6b1d219^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
@@ -1087,13 +1087,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:37:02Z</t>
-  </si>
-  <si>
-    <t>cc7adca855eb2135bfde47c3583518bf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.27cec9fea7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:11:35Z</t>
+  </si>
+  <si>
+    <t>8a034d0f553ec469f04e94227006c851</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.b733d7b3d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":text}'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected.","status":400,"instance":"/validation/error"</t>
@@ -1106,13 +1106,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:39:43Z</t>
-  </si>
-  <si>
-    <t>9526c69481598eef1a5643cb582465be</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.8c9273b82c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:13:01Z</t>
+  </si>
+  <si>
+    <t>90d377f7ed78f581ec0f83a1ebe6fb06</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.7eb4199d46^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b4| Sezione Referto: DEVE essere presente la sezione \"Referto\".],[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.]","status":422,"instance":"/validation/error"</t>
@@ -1125,13 +1125,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:42:35Z</t>
-  </si>
-  <si>
-    <t>0abc205342d245757b8ad502c16120d5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.93aa83f4bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:14:11Z</t>
+  </si>
+  <si>
+    <t>644117aca532f6451e49732f95fd4bbf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.4cb7ebf362^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b13| Sezione Precedenti Esami Eseguiti: La section deve contenere l'elemento 'text'.]","status":422,"instance":"/validation/error"</t>
@@ -1144,13 +1144,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:45:11Z</t>
-  </si>
-  <si>
-    <t>b722f3dc12b828103f83cd176ccb0c25</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.5797d5148d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:15:24Z</t>
+  </si>
+  <si>
+    <t>96d86481b9cda33be7f5c3dfee9ff012</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.64b5670bc3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b7| Sezione Dicom Object Catalog: La sezione deve avere l'elemento 'entry' di tipo 'act'.]","status":422,"instance":"/validation/error"</t>
@@ -1163,13 +1163,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:47:48Z</t>
-  </si>
-  <si>
-    <t>385e064918d907b913f87c94ae37c803</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ccd6fa21a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:17:20Z</t>
+  </si>
+  <si>
+    <t>9688af4d8cd28134331650c9a77fddd7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.fbb55b9aa3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b22| Sezione Storia Clinica: L'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato.]","status":422,"instance":"/validation/error"</t>
@@ -1182,13 +1182,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:50:15Z</t>
-  </si>
-  <si>
-    <t>569bc64e25a8eac2ee4d38a4719cd173</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.8a44b72ade^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:20:09Z</t>
+  </si>
+  <si>
+    <t>eb055ec34ee8fc6861c3a65b75e0b336</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.42699f4ce1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b26| Sezione Storia Clinica: La entry/organizer deve avere un elemento subject/relatedSubject il quale deve contenere l'elemento 'code'. ]","status":422,"instance":"/validation/error"</t>
@@ -1201,13 +1201,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:53:02Z</t>
-  </si>
-  <si>
-    <t>ce59aa45031803a3052f0ee31c14973d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.afbb0918ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:21:25Z</t>
+  </si>
+  <si>
+    <t>667c3016af88deb513f53462350c5fd5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.bf3d1e9d7c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b53| Sotto sezione Allergie: I'elemento entry/act/entryRelationship/observation/effectiveTime deve avere valorizzato l'elemento 'low'.]","status":422,"instance":"/validation/error"</t>
@@ -1220,13 +1220,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:55:27Z</t>
-  </si>
-  <si>
-    <t>eaa67ca55a6d7465dd90ce04ba9e8223</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.be150052f4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:22:22Z</t>
+  </si>
+  <si>
+    <t>12476e374b76ff00d43e8d6d9a285e38</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.6126e23611^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b57| Sotto sezione Allergie: L'elemento entryRelationship/observation (Descrizione Agente) deve avere almeno un elemento 'participant' che dettaglia l'agente scatenante.]","status":422,"instance":"/validation/error"</t>
@@ -1239,13 +1239,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T14:01:03Z</t>
-  </si>
-  <si>
-    <t>29acd38429bbadbfc14bc77c518f1fe4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c9cfb3847f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:23:26Z</t>
+  </si>
+  <si>
+    <t>1d7e196f082b7bc5b91548121ed5b96a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.039d7d5aa1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
@@ -1255,13 +1255,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T14:04:06Z</t>
-  </si>
-  <si>
-    <t>bdd3063c87849f906d2567277738375c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.314a7ed388^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T13:24:54Z</t>
+  </si>
+  <si>
+    <t>646ac2e5f00e857b553bd229c5a14eb9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.079f0f4c5b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ]","status":422,"instance":"/validation/error"</t>
@@ -1274,13 +1274,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T06:00:59Z</t>
-  </si>
-  <si>
-    <t>7e705822aa61527d5588b6c23e597b80</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.2a96168cb7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:03:26Z</t>
+  </si>
+  <si>
+    <t>759ce535b53be559f4c52e409c15ca20</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.af86b7773b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT8_KO</t>
@@ -1290,13 +1290,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T06:05:29Z</t>
-  </si>
-  <si>
-    <t>8f6e2abea53cda8988f4cc3facd79aff</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.9ad6a37de6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:04:59Z</t>
+  </si>
+  <si>
+    <t>434a77e0853974438b76b4a79d5174a0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.520fcd4398^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]","status":422,"instance":"/validation/error</t>
@@ -1309,13 +1309,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T06:08:57Z</t>
-  </si>
-  <si>
-    <t>dd38953049445da1c4cf965ceaee3324</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.e3f45c349f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:06:01Z</t>
+  </si>
+  <si>
+    <t>a76d5432694f0b5de987859a0cb3cbd1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.fba552b978^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT10_KO</t>
@@ -1325,13 +1325,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T06:11:48Z</t>
-  </si>
-  <si>
-    <t>79f9928d9c0fba65e1e70b66a8c807a0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.f60cc3668a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:07:17Z</t>
+  </si>
+  <si>
+    <t>83d434351a095b0d55ea7960132f590c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.1ba0d7619a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT12_KO</t>
@@ -1341,13 +1341,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T06:16:32Z</t>
-  </si>
-  <si>
-    <t>82302387076b46b2a87f755a2a24f431</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.07f2d414fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:08:47Z</t>
+  </si>
+  <si>
+    <t>7394039019e2d8c2184ac1ef3a46eb03</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.44d0e64f20^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.7 v2.1.0, Codes: DUMMY]","status":400,"instance":"/validation/error"</t>
@@ -1360,13 +1360,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T06:19:32Z</t>
-  </si>
-  <si>
-    <t>4e45d821b319f527fdde83c70ffbc2de</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.36cd6e62ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:09:49Z</t>
+  </si>
+  <si>
+    <t>635620fca4731ba87a8b36ac73b4524d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.6d1a440670^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT14_KO</t>
@@ -1376,13 +1376,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T06:22:34Z</t>
-  </si>
-  <si>
-    <t>da097d5761f9901a648aaee510ee2812</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.9edf7903b4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:11:07Z</t>
+  </si>
+  <si>
+    <t>49ccf440473231698b0a33c6ca5f4cec</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.ca251800d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":statusCode}'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected.,ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":effectiveTime}'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected.","status":400,"instance":"/validation/error"</t>
@@ -1395,13 +1395,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T06:25:34Z</t>
-  </si>
-  <si>
-    <t>806d4a7123dd6d4e4e63e1943b0ebf9f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.eea4724c1d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:12:14Z</t>
+  </si>
+  <si>
+    <t>bd74d6f343b7ba1864945ad96bbac7ba</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.84dbced293^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b4| Sezione Referto: la sezione DEVE essere presente],[ERRORE-b5| Sezione Referto: la sezione DEVE contenere un elemento 'text']","status":422,"instance":"/validation/error"</t>
@@ -1414,13 +1414,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T06:28:49Z</t>
-  </si>
-  <si>
-    <t>eae9747389096da08059089ba129208d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.f5fca23441^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:14:29Z</t>
+  </si>
+  <si>
+    <t>6d153b848bd5a6545d244d4d1cae8998</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.696a3ddae7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b6| Sezione Quesito Diagnostico: la sezione DEVE contenere un elemento 'text']","status":422,"instance":"/validation/error"</t>
@@ -1433,13 +1433,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T12:24:47Z</t>
-  </si>
-  <si>
-    <t>b6639267d2815c11b26fd876274580fe</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.121eaf8bf5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:15:33Z</t>
+  </si>
+  <si>
+    <t>02264a8d1fc725117beeba75ad38fbe3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.54c0baa2fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b3| Sezione Prestazioni: la sezione DEVE contenere un elemento 'entry']","status":422,"instance":"/validation/error"</t>
@@ -1452,13 +1452,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T12:27:58Z</t>
-  </si>
-  <si>
-    <t>20173d1fffc47545fb8ef1d49ad9636d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.37b1fab45b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:16:43Z</t>
+  </si>
+  <si>
+    <t>46410381693decd559f00d2b4623d528</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.9fbf0405fb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b26| Sezione Storia Clinica: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato],[ERRORE-b27| Sezione Storia Clinica: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'high' valorizzato nel caso in cui il problema risulta non essere più presente]","status":422,"instance":"/validation/error"</t>
@@ -1471,13 +1471,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T12:33:22Z</t>
-  </si>
-  <si>
-    <t>550f562421831bd080eae81fa28135c6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.e9b18ea137^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:17:56Z</t>
+  </si>
+  <si>
+    <t>7785da3f2e9935e0e21f1f8f3a4ef64e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.c0520e9e9e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b36| Sezione Storia Clinica: l'elemento entry/organizer/subject/relatedSubject deve avere l'attributo @classCode='PRS' e deve contenere l'elemento 'code']","status":422,"instance":"/validation/error"</t>
@@ -1490,13 +1490,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T12:36:56Z</t>
-  </si>
-  <si>
-    <t>e159418a2a21cb84676e310b6ecc1400</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.6c6bc251e3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:19:01Z</t>
+  </si>
+  <si>
+    <t>ac903e18d345aa9016c2800a0126c6ba</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.2a5c6a521d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b53| Sotto-sezione Allergie: l'elemento entry/act/entryRelationship/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato ]","status":422,"instance":"/validation/error"</t>
@@ -1509,13 +1509,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T12:39:17Z</t>
-  </si>
-  <si>
-    <t>a3fbe77372108f5c2b0b0aa386424658</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.07082ef9a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:20:06Z</t>
+  </si>
+  <si>
+    <t>8ccac8dc8c1f1409ddc8312a010a52ad</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.df9af36a4c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b57| Sotto-sezione Allergie: entry/act/entryRelationship/observation deve contenere almeno un elemento 'participant']","status":422,"instance":"/validation/error"</t>
@@ -1528,13 +1528,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T12:41:39Z</t>
-  </si>
-  <si>
-    <t>23964ab26332388b02e8dcb4ca34cb66</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.41b82c9f1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:21:24Z</t>
+  </si>
+  <si>
+    <t>2f5e42e7954440eac017482b48b4e4e1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.26d11780c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 69.69.69]","status":400,"instance":"/validation/error"</t>
@@ -1547,13 +1547,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T12:44:46Z</t>
-  </si>
-  <si>
-    <t>38a062e4ef9698fba866573aa1abf85b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.25736d2f75^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:22:30Z</t>
+  </si>
+  <si>
+    <t>dd8ea24ae36277135e7d78a0a004f151</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.66590f8c57^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-30| L'elemento ClinicalDocument/legalAuthenticator/signatureCode deve essere valorizzato con il codice \"S\" ]","status":422,"instance":"/validation/error"</t>
@@ -1588,13 +1588,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T12:57:18Z</t>
-  </si>
-  <si>
-    <t>fd9cb4028b5d0c5bfd8a2d048e140ec9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.a0459fbfd7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:24:54Z</t>
+  </si>
+  <si>
+    <t>c9775173d5f71e061980cf690272ec47</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.f97d023067^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT2</t>
@@ -1604,13 +1604,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T13:01:25Z</t>
-  </si>
-  <si>
-    <t>1a97a311208b3e6db8ea24aa89fe5e96</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.fa6b12fe7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:26:12Z</t>
+  </si>
+  <si>
+    <t>a3281d09f42a4e9d4c1a52ee53b34b78</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.d91031032a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT24</t>
@@ -1620,13 +1620,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T05:40:10Z</t>
-  </si>
-  <si>
-    <t>963c7719f1e433e721b9f691531cf743</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.475ce39849^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:27:37Z</t>
+  </si>
+  <si>
+    <t>6c28a99aa69a985611b5f2f9a5e65e92</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.c5dd905cd7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1636,13 +1636,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T05:49:45Z</t>
-  </si>
-  <si>
-    <t>91fe757cd31a1cf77ab96f754a394238</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d948e5b257^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:29:01Z</t>
+  </si>
+  <si>
+    <t>3789a798225be7b1717480dcf59d0f2c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.73ec0f2df2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT17</t>
@@ -1652,13 +1652,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T14:15:50Z</t>
-  </si>
-  <si>
-    <t>770c641ae7fd7050195340985d8823f2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.0103faa5f6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:30:53Z</t>
+  </si>
+  <si>
+    <t>a9b5c09269099d7bdbac5f95498dcd9c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e019f83c76^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT18</t>
@@ -1668,13 +1668,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T14:18:39Z</t>
-  </si>
-  <si>
-    <t>6f0c7fbfcc08a37e2a8d5b49517223e9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.889cded565^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:32:24Z</t>
+  </si>
+  <si>
+    <t>70f44d0512f4bec1bd0306817ae7e6b1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.970972a992^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT17</t>
@@ -1685,13 +1685,13 @@
 </t>
   </si>
   <si>
-    <t>2025-04-17T12:28:23Z</t>
-  </si>
-  <si>
-    <t>fb52eecf311ce392</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.27d5ff79ca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:34:26Z</t>
+  </si>
+  <si>
+    <t>038c99bdbe4d278adf1b993e150bb79f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.31b2baeed8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
@@ -1701,13 +1701,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T12:48:44Z</t>
-  </si>
-  <si>
-    <t>2348ce906cf403e5aa8e31998143912c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.edcad70538^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:35:45Z</t>
+  </si>
+  <si>
+    <t>5bee66151bd7d7010c036153813d72fd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.20aa8df361^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
@@ -1717,13 +1717,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T14:07:59Z</t>
-  </si>
-  <si>
-    <t>2c92fc3da1459bc6ced8e8b912d31957</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.e2a718b0f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:37:01Z</t>
+  </si>
+  <si>
+    <t>ea5a2550239d692513bfd01767b15d99</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.fcd383e04d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":languageCode}'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.","status":400,"instance":"/validation/error"</t>
@@ -1736,13 +1736,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-17T12:49:12Z</t>
-  </si>
-  <si>
-    <t>ae85292b947beee4c0f53dff66a21f7b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.77d57c3d03^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:38:11Z</t>
+  </si>
+  <si>
+    <t>e16df92c5fa9c058f2293d5a333fe7e6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.306843f138^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
@@ -1752,13 +1752,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2025-04-18T14:56:11Z</t>
-  </si>
-  <si>
-    <t>3fcb215e117ceace27a8e16fcdb9ac0d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.825d104a82^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:39:34Z</t>
+  </si>
+  <si>
+    <t>b69617dc7a10b807f64f3e115a87b89d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.46bed4320e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
@@ -1768,13 +1768,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-18T12:53:31Z</t>
-  </si>
-  <si>
-    <t>fe38481b482ef2455b74533badb088ca</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.ffbd023f3a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T19:40:44Z</t>
+  </si>
+  <si>
+    <t>be69131a703682ec708d9680cb5dcf8d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.1761460a7e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>LISTA VALORI</t>
@@ -2619,7 +2619,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2808,9 +2808,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -4352,18 +4349,26 @@
   <cols>
     <col min="1" max="1" width="7.65625" style="25" customWidth="1"/>
     <col min="2" max="2" width="15.5781" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.9297" style="25" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="104.852" style="25" customWidth="1"/>
-    <col min="6" max="9" width="33.1719" style="25" customWidth="1"/>
-    <col min="10" max="10" width="27.1719" style="25" customWidth="1"/>
-    <col min="11" max="11" width="30" style="25" customWidth="1"/>
-    <col min="12" max="12" width="31.6719" style="25" customWidth="1"/>
-    <col min="13" max="18" width="36.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="6.86719" style="25" customWidth="1"/>
+    <col min="4" max="4" width="33.1484" style="25" customWidth="1"/>
+    <col min="5" max="5" width="95.8672" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.7344" style="25" customWidth="1"/>
+    <col min="7" max="7" width="20.5469" style="25" customWidth="1"/>
+    <col min="8" max="9" width="33.1719" style="25" customWidth="1"/>
+    <col min="10" max="10" width="12.4375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="16" style="25" customWidth="1"/>
+    <col min="12" max="12" width="17.9141" style="25" customWidth="1"/>
+    <col min="13" max="13" width="18.3672" style="25" customWidth="1"/>
+    <col min="14" max="14" width="16.3125" style="25" customWidth="1"/>
+    <col min="15" max="15" width="36.5" style="25" customWidth="1"/>
+    <col min="16" max="16" width="15.7656" style="25" customWidth="1"/>
+    <col min="17" max="17" width="14.5469" style="25" customWidth="1"/>
+    <col min="18" max="18" width="14.9297" style="25" customWidth="1"/>
     <col min="19" max="19" width="27.1719" style="25" customWidth="1"/>
-    <col min="20" max="20" width="33.1719" style="25" customWidth="1"/>
-    <col min="21" max="21" width="36.5" style="25" customWidth="1"/>
-    <col min="22" max="23" width="31.8516" style="25" customWidth="1"/>
+    <col min="20" max="20" width="14.2812" style="25" customWidth="1"/>
+    <col min="21" max="21" width="15.1016" style="25" customWidth="1"/>
+    <col min="22" max="22" width="14.8984" style="25" customWidth="1"/>
+    <col min="23" max="23" width="31.8516" style="25" customWidth="1"/>
     <col min="24" max="16384" width="14.5" style="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4667,7 +4672,7 @@
         <v>58</v>
       </c>
       <c r="F10" s="57">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="G10" t="s" s="58">
         <v>59</v>
@@ -4726,7 +4731,7 @@
         <v>67</v>
       </c>
       <c r="F11" s="57">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="G11" t="s" s="58">
         <v>68</v>
@@ -4789,7 +4794,7 @@
         <v>67</v>
       </c>
       <c r="F12" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G12" t="s" s="58">
         <v>76</v>
@@ -4852,7 +4857,7 @@
         <v>67</v>
       </c>
       <c r="F13" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G13" t="s" s="58">
         <v>80</v>
@@ -4915,7 +4920,7 @@
         <v>67</v>
       </c>
       <c r="F14" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G14" t="s" s="58">
         <v>84</v>
@@ -4978,7 +4983,7 @@
         <v>87</v>
       </c>
       <c r="F15" s="57">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="G15" t="s" s="58">
         <v>88</v>
@@ -5041,7 +5046,7 @@
         <v>87</v>
       </c>
       <c r="F16" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G16" t="s" s="58">
         <v>92</v>
@@ -5104,7 +5109,7 @@
         <v>87</v>
       </c>
       <c r="F17" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G17" t="s" s="58">
         <v>95</v>
@@ -5167,7 +5172,7 @@
         <v>87</v>
       </c>
       <c r="F18" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G18" t="s" s="58">
         <v>98</v>
@@ -5230,10 +5235,10 @@
         <v>101</v>
       </c>
       <c r="F19" s="57">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="G19" t="s" s="58">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
@@ -5291,10 +5296,10 @@
         <v>101</v>
       </c>
       <c r="F20" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G20" t="s" s="58">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
@@ -5352,7 +5357,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G21" t="s" s="58">
         <v>98</v>
@@ -5413,7 +5418,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G22" t="s" s="58">
         <v>98</v>
@@ -5474,7 +5479,7 @@
         <v>108</v>
       </c>
       <c r="F23" s="57">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="G23" t="s" s="58">
         <v>109</v>
@@ -5537,7 +5542,7 @@
         <v>115</v>
       </c>
       <c r="F24" s="57">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="G24" t="s" s="58">
         <v>116</v>
@@ -5600,7 +5605,7 @@
         <v>121</v>
       </c>
       <c r="F25" s="57">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="G25" t="s" s="58">
         <v>122</v>
@@ -5663,7 +5668,7 @@
         <v>128</v>
       </c>
       <c r="F26" s="57">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="G26" t="s" s="58">
         <v>129</v>
@@ -5724,7 +5729,7 @@
         <v>134</v>
       </c>
       <c r="F27" s="57">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="G27" t="s" s="58">
         <v>135</v>
@@ -5787,7 +5792,7 @@
         <v>140</v>
       </c>
       <c r="F28" s="57">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="G28" t="s" s="58">
         <v>141</v>
@@ -5850,7 +5855,7 @@
         <v>146</v>
       </c>
       <c r="F29" s="57">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="G29" t="s" s="58">
         <v>147</v>
@@ -5913,7 +5918,7 @@
         <v>152</v>
       </c>
       <c r="F30" s="57">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="G30" t="s" s="58">
         <v>153</v>
@@ -5976,7 +5981,7 @@
         <v>158</v>
       </c>
       <c r="F31" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G31" t="s" s="58">
         <v>159</v>
@@ -6039,7 +6044,7 @@
         <v>164</v>
       </c>
       <c r="F32" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G32" t="s" s="58">
         <v>165</v>
@@ -6102,7 +6107,7 @@
         <v>170</v>
       </c>
       <c r="F33" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G33" t="s" s="58">
         <v>171</v>
@@ -6165,7 +6170,7 @@
         <v>176</v>
       </c>
       <c r="F34" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G34" t="s" s="58">
         <v>177</v>
@@ -6228,7 +6233,7 @@
         <v>182</v>
       </c>
       <c r="F35" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G35" t="s" s="58">
         <v>183</v>
@@ -6291,7 +6296,7 @@
         <v>188</v>
       </c>
       <c r="F36" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G36" t="s" s="58">
         <v>189</v>
@@ -6354,7 +6359,7 @@
         <v>194</v>
       </c>
       <c r="F37" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G37" t="s" s="58">
         <v>195</v>
@@ -6417,7 +6422,7 @@
         <v>200</v>
       </c>
       <c r="F38" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G38" t="s" s="58">
         <v>201</v>
@@ -6480,7 +6485,7 @@
         <v>206</v>
       </c>
       <c r="F39" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G39" t="s" s="58">
         <v>207</v>
@@ -6543,7 +6548,7 @@
         <v>212</v>
       </c>
       <c r="F40" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G40" t="s" s="58">
         <v>213</v>
@@ -6606,7 +6611,7 @@
         <v>218</v>
       </c>
       <c r="F41" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G41" t="s" s="58">
         <v>219</v>
@@ -6669,7 +6674,7 @@
         <v>223</v>
       </c>
       <c r="F42" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G42" t="s" s="58">
         <v>224</v>
@@ -6732,7 +6737,7 @@
         <v>229</v>
       </c>
       <c r="F43" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G43" t="s" s="58">
         <v>230</v>
@@ -6795,7 +6800,7 @@
         <v>235</v>
       </c>
       <c r="F44" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G44" t="s" s="58">
         <v>236</v>
@@ -6858,7 +6863,7 @@
         <v>240</v>
       </c>
       <c r="F45" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G45" t="s" s="58">
         <v>241</v>
@@ -6921,7 +6926,7 @@
         <v>246</v>
       </c>
       <c r="F46" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G46" t="s" s="58">
         <v>247</v>
@@ -6984,7 +6989,7 @@
         <v>251</v>
       </c>
       <c r="F47" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G47" t="s" s="58">
         <v>252</v>
@@ -7047,7 +7052,7 @@
         <v>256</v>
       </c>
       <c r="F48" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G48" t="s" s="58">
         <v>257</v>
@@ -7110,7 +7115,7 @@
         <v>262</v>
       </c>
       <c r="F49" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G49" t="s" s="58">
         <v>263</v>
@@ -7173,7 +7178,7 @@
         <v>268</v>
       </c>
       <c r="F50" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G50" t="s" s="58">
         <v>269</v>
@@ -7236,7 +7241,7 @@
         <v>274</v>
       </c>
       <c r="F51" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G51" t="s" s="58">
         <v>275</v>
@@ -7299,7 +7304,7 @@
         <v>280</v>
       </c>
       <c r="F52" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G52" t="s" s="58">
         <v>281</v>
@@ -7362,7 +7367,7 @@
         <v>286</v>
       </c>
       <c r="F53" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G53" t="s" s="58">
         <v>287</v>
@@ -7425,7 +7430,7 @@
         <v>292</v>
       </c>
       <c r="F54" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G54" t="s" s="58">
         <v>293</v>
@@ -7488,7 +7493,7 @@
         <v>298</v>
       </c>
       <c r="F55" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G55" t="s" s="58">
         <v>299</v>
@@ -7551,7 +7556,7 @@
         <v>304</v>
       </c>
       <c r="F56" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G56" t="s" s="58">
         <v>305</v>
@@ -7614,7 +7619,7 @@
         <v>309</v>
       </c>
       <c r="F57" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G57" t="s" s="58">
         <v>310</v>
@@ -7677,7 +7682,7 @@
         <v>315</v>
       </c>
       <c r="F58" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G58" t="s" s="58">
         <v>316</v>
@@ -7740,7 +7745,7 @@
         <v>320</v>
       </c>
       <c r="F59" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G59" t="s" s="58">
         <v>321</v>
@@ -7803,7 +7808,7 @@
         <v>326</v>
       </c>
       <c r="F60" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G60" t="s" s="58">
         <v>327</v>
@@ -7866,7 +7871,7 @@
         <v>331</v>
       </c>
       <c r="F61" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G61" t="s" s="58">
         <v>332</v>
@@ -7929,7 +7934,7 @@
         <v>336</v>
       </c>
       <c r="F62" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G62" t="s" s="58">
         <v>337</v>
@@ -7992,7 +7997,7 @@
         <v>342</v>
       </c>
       <c r="F63" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G63" t="s" s="58">
         <v>343</v>
@@ -8055,7 +8060,7 @@
         <v>347</v>
       </c>
       <c r="F64" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G64" t="s" s="58">
         <v>348</v>
@@ -8118,7 +8123,7 @@
         <v>353</v>
       </c>
       <c r="F65" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G65" t="s" s="58">
         <v>354</v>
@@ -8181,7 +8186,7 @@
         <v>359</v>
       </c>
       <c r="F66" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G66" t="s" s="58">
         <v>360</v>
@@ -8244,7 +8249,7 @@
         <v>365</v>
       </c>
       <c r="F67" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G67" t="s" s="58">
         <v>366</v>
@@ -8307,7 +8312,7 @@
         <v>371</v>
       </c>
       <c r="F68" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G68" t="s" s="58">
         <v>372</v>
@@ -8370,7 +8375,7 @@
         <v>377</v>
       </c>
       <c r="F69" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G69" t="s" s="58">
         <v>378</v>
@@ -8433,7 +8438,7 @@
         <v>383</v>
       </c>
       <c r="F70" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G70" t="s" s="58">
         <v>384</v>
@@ -8496,7 +8501,7 @@
         <v>389</v>
       </c>
       <c r="F71" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G71" t="s" s="58">
         <v>390</v>
@@ -8559,7 +8564,7 @@
         <v>395</v>
       </c>
       <c r="F72" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G72" t="s" s="58">
         <v>396</v>
@@ -8622,7 +8627,7 @@
         <v>401</v>
       </c>
       <c r="F73" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G73" t="s" s="58">
         <v>402</v>
@@ -8771,7 +8776,7 @@
         <v>413</v>
       </c>
       <c r="F76" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G76" t="s" s="58">
         <v>414</v>
@@ -8830,7 +8835,7 @@
         <v>418</v>
       </c>
       <c r="F77" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G77" t="s" s="58">
         <v>419</v>
@@ -8889,7 +8894,7 @@
         <v>423</v>
       </c>
       <c r="F78" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G78" t="s" s="58">
         <v>424</v>
@@ -8948,7 +8953,7 @@
         <v>428</v>
       </c>
       <c r="F79" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G79" t="s" s="58">
         <v>429</v>
@@ -9007,7 +9012,7 @@
         <v>433</v>
       </c>
       <c r="F80" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G80" t="s" s="58">
         <v>434</v>
@@ -9066,7 +9071,7 @@
         <v>438</v>
       </c>
       <c r="F81" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G81" t="s" s="58">
         <v>439</v>
@@ -9125,7 +9130,7 @@
         <v>443</v>
       </c>
       <c r="F82" s="57">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="G82" t="s" s="58">
         <v>444</v>
@@ -9184,7 +9189,7 @@
         <v>448</v>
       </c>
       <c r="F83" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G83" t="s" s="58">
         <v>449</v>
@@ -9247,7 +9252,7 @@
         <v>453</v>
       </c>
       <c r="F84" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G84" t="s" s="58">
         <v>454</v>
@@ -9310,9 +9315,9 @@
         <v>459</v>
       </c>
       <c r="F85" s="57">
-        <v>45764</v>
-      </c>
-      <c r="G85" t="s" s="63">
+        <v>45784</v>
+      </c>
+      <c r="G85" t="s" s="58">
         <v>460</v>
       </c>
       <c r="H85" t="s" s="55">
@@ -9373,7 +9378,7 @@
         <v>464</v>
       </c>
       <c r="F86" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G86" t="s" s="58">
         <v>465</v>
@@ -9436,7 +9441,7 @@
         <v>469</v>
       </c>
       <c r="F87" s="57">
-        <v>45765</v>
+        <v>45784</v>
       </c>
       <c r="G87" t="s" s="58">
         <v>470</v>
@@ -9488,24 +9493,24 @@
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="65"/>
-      <c r="M88" s="65"/>
-      <c r="N88" s="65"/>
-      <c r="O88" s="65"/>
-      <c r="P88" s="65"/>
-      <c r="Q88" s="65"/>
-      <c r="R88" s="65"/>
-      <c r="S88" s="65"/>
-      <c r="T88" s="65"/>
-      <c r="U88" s="66"/>
-      <c r="V88" s="67"/>
-      <c r="W88" s="68"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="64"/>
+      <c r="K88" s="64"/>
+      <c r="L88" s="64"/>
+      <c r="M88" s="64"/>
+      <c r="N88" s="64"/>
+      <c r="O88" s="64"/>
+      <c r="P88" s="64"/>
+      <c r="Q88" s="64"/>
+      <c r="R88" s="64"/>
+      <c r="S88" s="64"/>
+      <c r="T88" s="64"/>
+      <c r="U88" s="65"/>
+      <c r="V88" s="66"/>
+      <c r="W88" s="67"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="8"/>
@@ -23521,12 +23526,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="69" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="69" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="68" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="70">
+      <c r="A1" t="s" s="69">
         <v>474</v>
       </c>
       <c r="B1" s="8"/>
@@ -23535,7 +23540,7 @@
       <c r="E1" s="8"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="70">
+      <c r="A2" t="s" s="69">
         <v>475</v>
       </c>
       <c r="B2" s="8"/>
@@ -23544,7 +23549,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="70">
+      <c r="A3" t="s" s="69">
         <v>476</v>
       </c>
       <c r="B3" s="8"/>
@@ -23553,7 +23558,7 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="70">
+      <c r="A4" t="s" s="69">
         <v>477</v>
       </c>
       <c r="B4" s="8"/>
@@ -23562,7 +23567,7 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="70">
+      <c r="A5" t="s" s="69">
         <v>478</v>
       </c>
       <c r="B5" s="8"/>
@@ -23571,7 +23576,7 @@
       <c r="E5" s="8"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="70">
+      <c r="A6" t="s" s="69">
         <v>479</v>
       </c>
       <c r="B6" s="8"/>
@@ -23580,7 +23585,7 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="70">
+      <c r="A7" t="s" s="69">
         <v>480</v>
       </c>
       <c r="B7" s="8"/>
@@ -23589,7 +23594,7 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="70">
+      <c r="A8" t="s" s="69">
         <v>408</v>
       </c>
       <c r="B8" s="8"/>
@@ -23628,48 +23633,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="71" customWidth="1"/>
-    <col min="2" max="2" width="23.8516" style="71" customWidth="1"/>
-    <col min="3" max="3" width="33.8516" style="71" customWidth="1"/>
-    <col min="4" max="4" width="102" style="71" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="71" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="71" customWidth="1"/>
-    <col min="7" max="7" width="7.85156" style="71" customWidth="1"/>
-    <col min="8" max="16384" width="14.5" style="71" customWidth="1"/>
+    <col min="1" max="1" width="16" style="70" customWidth="1"/>
+    <col min="2" max="2" width="23.8516" style="70" customWidth="1"/>
+    <col min="3" max="3" width="33.8516" style="70" customWidth="1"/>
+    <col min="4" max="4" width="102" style="70" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="70" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="70" customWidth="1"/>
+    <col min="7" max="7" width="7.85156" style="70" customWidth="1"/>
+    <col min="8" max="16384" width="14.5" style="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="72">
+      <c r="A1" t="s" s="71">
         <v>482</v>
       </c>
-      <c r="B1" t="s" s="72">
+      <c r="B1" t="s" s="71">
         <v>33</v>
       </c>
-      <c r="C1" t="s" s="72">
+      <c r="C1" t="s" s="71">
         <v>483</v>
       </c>
-      <c r="D1" t="s" s="72">
+      <c r="D1" t="s" s="71">
         <v>484</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" t="s" s="74">
+      <c r="E1" s="72"/>
+      <c r="F1" t="s" s="73">
         <v>485</v>
       </c>
-      <c r="G1" t="s" s="75">
+      <c r="G1" t="s" s="74">
         <v>486</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="76">
+      <c r="A2" t="s" s="75">
         <v>56</v>
       </c>
-      <c r="B2" t="s" s="77">
+      <c r="B2" t="s" s="76">
         <v>487</v>
       </c>
-      <c r="C2" t="s" s="78">
+      <c r="C2" t="s" s="77">
         <v>488</v>
       </c>
-      <c r="D2" t="s" s="78">
+      <c r="D2" t="s" s="77">
         <v>489</v>
       </c>
       <c r="E2" s="35"/>
@@ -23677,16 +23682,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="76">
+      <c r="A3" t="s" s="75">
         <v>74</v>
       </c>
-      <c r="B3" t="s" s="77">
+      <c r="B3" t="s" s="76">
         <v>487</v>
       </c>
-      <c r="C3" t="s" s="78">
+      <c r="C3" t="s" s="77">
         <v>490</v>
       </c>
-      <c r="D3" t="s" s="78">
+      <c r="D3" t="s" s="77">
         <v>491</v>
       </c>
       <c r="E3" s="35"/>
@@ -23694,16 +23699,16 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="76">
+      <c r="A4" t="s" s="75">
         <v>78</v>
       </c>
-      <c r="B4" t="s" s="77">
+      <c r="B4" t="s" s="76">
         <v>487</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="78">
         <v>446.447</v>
       </c>
-      <c r="D4" t="s" s="80">
+      <c r="D4" t="s" s="79">
         <v>492</v>
       </c>
       <c r="E4" s="35"/>
@@ -23711,16 +23716,16 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" t="s" s="76">
+      <c r="A5" t="s" s="75">
         <v>493</v>
       </c>
-      <c r="B5" t="s" s="77">
+      <c r="B5" t="s" s="76">
         <v>487</v>
       </c>
-      <c r="C5" t="s" s="78">
+      <c r="C5" t="s" s="77">
         <v>494</v>
       </c>
-      <c r="D5" t="s" s="78">
+      <c r="D5" t="s" s="77">
         <v>495</v>
       </c>
       <c r="E5" s="35"/>
@@ -23728,16 +23733,16 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" t="s" s="76">
+      <c r="A6" t="s" s="75">
         <v>496</v>
       </c>
-      <c r="B6" t="s" s="77">
+      <c r="B6" t="s" s="76">
         <v>487</v>
       </c>
-      <c r="C6" t="s" s="78">
+      <c r="C6" t="s" s="77">
         <v>497</v>
       </c>
-      <c r="D6" t="s" s="80">
+      <c r="D6" t="s" s="79">
         <v>498</v>
       </c>
       <c r="E6" s="35"/>
@@ -23745,16 +23750,16 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" ht="14.5" customHeight="1">
-      <c r="A7" t="s" s="76">
+      <c r="A7" t="s" s="75">
         <v>499</v>
       </c>
-      <c r="B7" t="s" s="77">
+      <c r="B7" t="s" s="76">
         <v>487</v>
       </c>
-      <c r="C7" t="s" s="78">
+      <c r="C7" t="s" s="77">
         <v>500</v>
       </c>
-      <c r="D7" t="s" s="80">
+      <c r="D7" t="s" s="79">
         <v>501</v>
       </c>
       <c r="E7" s="35"/>
@@ -23762,16 +23767,16 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" ht="14.5" customHeight="1">
-      <c r="A8" t="s" s="76">
+      <c r="A8" t="s" s="75">
         <v>82</v>
       </c>
-      <c r="B8" t="s" s="77">
+      <c r="B8" t="s" s="76">
         <v>487</v>
       </c>
-      <c r="C8" t="s" s="78">
+      <c r="C8" t="s" s="77">
         <v>502</v>
       </c>
-      <c r="D8" t="s" s="80">
+      <c r="D8" t="s" s="79">
         <v>503</v>
       </c>
       <c r="E8" s="35"/>
@@ -23779,16 +23784,16 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" ht="14.5" customHeight="1">
-      <c r="A9" t="s" s="76">
+      <c r="A9" t="s" s="75">
         <v>504</v>
       </c>
-      <c r="B9" t="s" s="77">
+      <c r="B9" t="s" s="76">
         <v>487</v>
       </c>
-      <c r="C9" t="s" s="78">
+      <c r="C9" t="s" s="77">
         <v>505</v>
       </c>
-      <c r="D9" t="s" s="80">
+      <c r="D9" t="s" s="79">
         <v>506</v>
       </c>
       <c r="E9" s="35"/>
@@ -23796,16 +23801,16 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" ht="43.5" customHeight="1">
-      <c r="A10" t="s" s="76">
+      <c r="A10" t="s" s="75">
         <v>507</v>
       </c>
-      <c r="B10" t="s" s="77">
+      <c r="B10" t="s" s="76">
         <v>487</v>
       </c>
-      <c r="C10" t="s" s="80">
+      <c r="C10" t="s" s="79">
         <v>508</v>
       </c>
-      <c r="D10" t="s" s="78">
+      <c r="D10" t="s" s="77">
         <v>509</v>
       </c>
       <c r="E10" s="35"/>
@@ -23813,16 +23818,16 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" t="s" s="76">
+      <c r="A11" t="s" s="75">
         <v>510</v>
       </c>
-      <c r="B11" t="s" s="77">
+      <c r="B11" t="s" s="76">
         <v>487</v>
       </c>
-      <c r="C11" t="s" s="78">
+      <c r="C11" t="s" s="77">
         <v>511</v>
       </c>
-      <c r="D11" t="s" s="80">
+      <c r="D11" t="s" s="79">
         <v>512</v>
       </c>
       <c r="E11" s="35"/>
@@ -23830,7 +23835,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="81"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
@@ -23839,7 +23844,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="82"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -23864,48 +23869,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" style="83" customWidth="1"/>
-    <col min="2" max="2" width="13.1719" style="83" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="83" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="83" customWidth="1"/>
+    <col min="1" max="1" width="11" style="82" customWidth="1"/>
+    <col min="2" max="2" width="13.1719" style="82" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="82" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="82" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="84">
+      <c r="A1" t="s" s="83">
         <v>51</v>
       </c>
-      <c r="B1" t="s" s="85">
+      <c r="B1" t="s" s="84">
         <v>41</v>
       </c>
-      <c r="C1" s="86"/>
+      <c r="C1" s="85"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="87">
+      <c r="A2" t="s" s="86">
         <v>64</v>
       </c>
-      <c r="B2" t="s" s="88">
-        <v>62</v>
-      </c>
-      <c r="C2" s="86"/>
+      <c r="B2" t="s" s="87">
+        <v>62</v>
+      </c>
+      <c r="C2" s="85"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="87">
+      <c r="A3" t="s" s="86">
         <v>514</v>
       </c>
-      <c r="B3" t="s" s="88">
+      <c r="B3" t="s" s="87">
         <v>63</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>

--- a/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.2.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.2.0.0/report-checklist.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="520">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -1785,6 +1785,9 @@
   </si>
   <si>
     <t>3ccf6b2bd540d768e3c53be73450f1d3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.3f6bafda9b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>LISTA VALORI</t>
@@ -4034,7 +4037,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4045,12 +4048,12 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="3">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4061,12 +4064,12 @@
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="3">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4077,7 +4080,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -9517,7 +9520,9 @@
       <c r="H88" t="s" s="58">
         <v>475</v>
       </c>
-      <c r="I88" s="57"/>
+      <c r="I88" t="s" s="58">
+        <v>476</v>
+      </c>
       <c r="J88" t="s" s="59">
         <v>61</v>
       </c>
@@ -23547,7 +23552,7 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="69">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -23556,7 +23561,7 @@
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="69">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -23565,7 +23570,7 @@
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="69">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -23574,7 +23579,7 @@
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="69">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -23583,7 +23588,7 @@
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="69">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -23592,7 +23597,7 @@
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="69">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -23601,7 +23606,7 @@
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="69">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -23660,23 +23665,23 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s" s="71">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B1" t="s" s="71">
         <v>32</v>
       </c>
       <c r="C1" t="s" s="71">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D1" t="s" s="71">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E1" s="72"/>
       <c r="F1" t="s" s="73">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G1" t="s" s="74">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -23684,13 +23689,13 @@
         <v>55</v>
       </c>
       <c r="B2" t="s" s="76">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C2" t="s" s="77">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D2" t="s" s="77">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="24"/>
@@ -23701,13 +23706,13 @@
         <v>73</v>
       </c>
       <c r="B3" t="s" s="76">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C3" t="s" s="77">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D3" t="s" s="77">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="8"/>
@@ -23718,13 +23723,13 @@
         <v>77</v>
       </c>
       <c r="B4" t="s" s="76">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C4" t="s" s="77">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="8"/>
@@ -23732,16 +23737,16 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s" s="75">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s" s="76">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C5" t="s" s="77">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D5" t="s" s="77">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="8"/>
@@ -23749,16 +23754,16 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s" s="75">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B6" t="s" s="76">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C6" t="s" s="77">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="8"/>
@@ -23766,16 +23771,16 @@
     </row>
     <row r="7" ht="14.5" customHeight="1">
       <c r="A7" t="s" s="75">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B7" t="s" s="76">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C7" t="s" s="77">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D7" t="s" s="78">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="8"/>
@@ -23786,13 +23791,13 @@
         <v>81</v>
       </c>
       <c r="B8" t="s" s="76">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C8" t="s" s="77">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D8" t="s" s="78">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="8"/>
@@ -23800,16 +23805,16 @@
     </row>
     <row r="9" ht="14.5" customHeight="1">
       <c r="A9" t="s" s="75">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B9" t="s" s="76">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C9" t="s" s="77">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D9" t="s" s="78">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="8"/>
@@ -23817,16 +23822,16 @@
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" t="s" s="75">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B10" t="s" s="76">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C10" t="s" s="78">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D10" t="s" s="77">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="8"/>
@@ -23834,16 +23839,16 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s" s="75">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B11" t="s" s="76">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C11" t="s" s="77">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D11" t="s" s="78">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="8"/>
@@ -23914,7 +23919,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="85">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B3" t="s" s="86">
         <v>62</v>

--- a/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.2.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.2.0.0/report-checklist.xlsx
@@ -1666,13 +1666,13 @@
 </t>
   </si>
   <si>
-    <t>2025-05-13T15:55:20Z</t>
-  </si>
-  <si>
-    <t>5a2e4f06c5e4a003dd63ca3144ba541a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.f198ec602c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-22T12:54:44Z</t>
+  </si>
+  <si>
+    <t>2ea742d898e5a0c507ffc40e12e6c37f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.43c78e15ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
@@ -9079,7 +9079,7 @@
         <v>437</v>
       </c>
       <c r="F81" s="57">
-        <v>45790</v>
+        <v>45799</v>
       </c>
       <c r="G81" t="s" s="58">
         <v>438</v>

--- a/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.2.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.2.0.0/report-checklist.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -706,7 +706,7 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.b9443c8b1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>"type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.7 v2.1.0, Codes: Z]","status":400,"instance":"/validation/error"</t>
+    <t>"type":"/msg/semantic","title":"Errore semantico.","status":422,"instance":"/validation/error"</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT13_KO</t>
@@ -782,7 +782,7 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.1b628f56ba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>"type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b19| L’elemento organizer di tipo 'BATTERY' (@classCode='BATTERY') DEVE contenere l’elemento organizer/code.\n\t\t\t],[W002 | Si consiglia di valorizzare l'elemento organizer[CLUSTER]/code]","status":422,"instance":"/validation/error"</t>
+    <t>"type":"/msg/syntax","title":"Errore di sintassi.","status":400,"instance":"/validation/error"</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT6_KO</t>
@@ -1361,9 +1361,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.a2c7b4081d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>"type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.7 v2.1.0, Codes: DUMMY]","status":400,"instance":"/validation/error"</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT13_KO</t>
@@ -4037,7 +4034,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4048,12 +4045,12 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="3">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4064,12 +4061,12 @@
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="3">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4080,7 +4077,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -8024,7 +8021,7 @@
         <v>61</v>
       </c>
       <c r="O63" t="s" s="59">
-        <v>344</v>
+        <v>137</v>
       </c>
       <c r="P63" t="s" s="59">
         <v>61</v>
@@ -8058,22 +8055,22 @@
         <v>81</v>
       </c>
       <c r="D64" t="s" s="55">
+        <v>344</v>
+      </c>
+      <c r="E64" t="s" s="56">
         <v>345</v>
-      </c>
-      <c r="E64" t="s" s="56">
-        <v>346</v>
       </c>
       <c r="F64" s="57">
         <v>45790</v>
       </c>
       <c r="G64" t="s" s="58">
+        <v>346</v>
+      </c>
+      <c r="H64" t="s" s="58">
         <v>347</v>
       </c>
-      <c r="H64" t="s" s="58">
+      <c r="I64" t="s" s="58">
         <v>348</v>
-      </c>
-      <c r="I64" t="s" s="58">
-        <v>349</v>
       </c>
       <c r="J64" t="s" s="59">
         <v>61</v>
@@ -8121,22 +8118,22 @@
         <v>81</v>
       </c>
       <c r="D65" t="s" s="55">
+        <v>349</v>
+      </c>
+      <c r="E65" t="s" s="56">
         <v>350</v>
-      </c>
-      <c r="E65" t="s" s="56">
-        <v>351</v>
       </c>
       <c r="F65" s="57">
         <v>45790</v>
       </c>
       <c r="G65" t="s" s="58">
+        <v>351</v>
+      </c>
+      <c r="H65" t="s" s="58">
         <v>352</v>
       </c>
-      <c r="H65" t="s" s="58">
+      <c r="I65" t="s" s="58">
         <v>353</v>
-      </c>
-      <c r="I65" t="s" s="58">
-        <v>354</v>
       </c>
       <c r="J65" t="s" s="59">
         <v>61</v>
@@ -8150,7 +8147,7 @@
         <v>61</v>
       </c>
       <c r="O65" t="s" s="59">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P65" t="s" s="59">
         <v>61</v>
@@ -8184,22 +8181,22 @@
         <v>81</v>
       </c>
       <c r="D66" t="s" s="55">
+        <v>355</v>
+      </c>
+      <c r="E66" t="s" s="56">
         <v>356</v>
-      </c>
-      <c r="E66" t="s" s="56">
-        <v>357</v>
       </c>
       <c r="F66" s="57">
         <v>45790</v>
       </c>
       <c r="G66" t="s" s="58">
+        <v>357</v>
+      </c>
+      <c r="H66" t="s" s="58">
         <v>358</v>
       </c>
-      <c r="H66" t="s" s="58">
+      <c r="I66" t="s" s="58">
         <v>359</v>
-      </c>
-      <c r="I66" t="s" s="58">
-        <v>360</v>
       </c>
       <c r="J66" t="s" s="59">
         <v>61</v>
@@ -8213,7 +8210,7 @@
         <v>61</v>
       </c>
       <c r="O66" t="s" s="59">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P66" t="s" s="59">
         <v>61</v>
@@ -8247,22 +8244,22 @@
         <v>81</v>
       </c>
       <c r="D67" t="s" s="55">
+        <v>361</v>
+      </c>
+      <c r="E67" t="s" s="56">
         <v>362</v>
-      </c>
-      <c r="E67" t="s" s="56">
-        <v>363</v>
       </c>
       <c r="F67" s="57">
         <v>45790</v>
       </c>
       <c r="G67" t="s" s="58">
+        <v>363</v>
+      </c>
+      <c r="H67" t="s" s="58">
         <v>364</v>
       </c>
-      <c r="H67" t="s" s="58">
+      <c r="I67" t="s" s="58">
         <v>365</v>
-      </c>
-      <c r="I67" t="s" s="58">
-        <v>366</v>
       </c>
       <c r="J67" t="s" s="59">
         <v>61</v>
@@ -8276,7 +8273,7 @@
         <v>61</v>
       </c>
       <c r="O67" t="s" s="59">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P67" t="s" s="59">
         <v>61</v>
@@ -8310,22 +8307,22 @@
         <v>81</v>
       </c>
       <c r="D68" t="s" s="55">
+        <v>367</v>
+      </c>
+      <c r="E68" t="s" s="56">
         <v>368</v>
-      </c>
-      <c r="E68" t="s" s="56">
-        <v>369</v>
       </c>
       <c r="F68" s="57">
         <v>45790</v>
       </c>
       <c r="G68" t="s" s="58">
+        <v>369</v>
+      </c>
+      <c r="H68" t="s" s="58">
         <v>370</v>
       </c>
-      <c r="H68" t="s" s="58">
+      <c r="I68" t="s" s="58">
         <v>371</v>
-      </c>
-      <c r="I68" t="s" s="58">
-        <v>372</v>
       </c>
       <c r="J68" t="s" s="59">
         <v>61</v>
@@ -8339,7 +8336,7 @@
         <v>61</v>
       </c>
       <c r="O68" t="s" s="59">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P68" t="s" s="59">
         <v>61</v>
@@ -8373,22 +8370,22 @@
         <v>81</v>
       </c>
       <c r="D69" t="s" s="55">
+        <v>373</v>
+      </c>
+      <c r="E69" t="s" s="56">
         <v>374</v>
-      </c>
-      <c r="E69" t="s" s="56">
-        <v>375</v>
       </c>
       <c r="F69" s="57">
         <v>45790</v>
       </c>
       <c r="G69" t="s" s="58">
+        <v>375</v>
+      </c>
+      <c r="H69" t="s" s="58">
         <v>376</v>
       </c>
-      <c r="H69" t="s" s="58">
+      <c r="I69" t="s" s="58">
         <v>377</v>
-      </c>
-      <c r="I69" t="s" s="58">
-        <v>378</v>
       </c>
       <c r="J69" t="s" s="59">
         <v>61</v>
@@ -8402,7 +8399,7 @@
         <v>61</v>
       </c>
       <c r="O69" t="s" s="59">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P69" t="s" s="59">
         <v>61</v>
@@ -8436,22 +8433,22 @@
         <v>81</v>
       </c>
       <c r="D70" t="s" s="55">
+        <v>379</v>
+      </c>
+      <c r="E70" t="s" s="56">
         <v>380</v>
-      </c>
-      <c r="E70" t="s" s="56">
-        <v>381</v>
       </c>
       <c r="F70" s="57">
         <v>45790</v>
       </c>
       <c r="G70" t="s" s="58">
+        <v>381</v>
+      </c>
+      <c r="H70" t="s" s="58">
         <v>382</v>
       </c>
-      <c r="H70" t="s" s="58">
+      <c r="I70" t="s" s="58">
         <v>383</v>
-      </c>
-      <c r="I70" t="s" s="58">
-        <v>384</v>
       </c>
       <c r="J70" t="s" s="59">
         <v>61</v>
@@ -8465,7 +8462,7 @@
         <v>61</v>
       </c>
       <c r="O70" t="s" s="59">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P70" t="s" s="59">
         <v>61</v>
@@ -8499,22 +8496,22 @@
         <v>81</v>
       </c>
       <c r="D71" t="s" s="55">
+        <v>385</v>
+      </c>
+      <c r="E71" t="s" s="56">
         <v>386</v>
-      </c>
-      <c r="E71" t="s" s="56">
-        <v>387</v>
       </c>
       <c r="F71" s="57">
         <v>45790</v>
       </c>
       <c r="G71" t="s" s="58">
+        <v>387</v>
+      </c>
+      <c r="H71" t="s" s="58">
         <v>388</v>
       </c>
-      <c r="H71" t="s" s="58">
+      <c r="I71" t="s" s="58">
         <v>389</v>
-      </c>
-      <c r="I71" t="s" s="58">
-        <v>390</v>
       </c>
       <c r="J71" t="s" s="59">
         <v>61</v>
@@ -8528,7 +8525,7 @@
         <v>61</v>
       </c>
       <c r="O71" t="s" s="59">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P71" t="s" s="59">
         <v>61</v>
@@ -8562,22 +8559,22 @@
         <v>81</v>
       </c>
       <c r="D72" t="s" s="55">
+        <v>391</v>
+      </c>
+      <c r="E72" t="s" s="56">
         <v>392</v>
-      </c>
-      <c r="E72" t="s" s="56">
-        <v>393</v>
       </c>
       <c r="F72" s="57">
         <v>45790</v>
       </c>
       <c r="G72" t="s" s="58">
+        <v>393</v>
+      </c>
+      <c r="H72" t="s" s="58">
         <v>394</v>
       </c>
-      <c r="H72" t="s" s="58">
+      <c r="I72" t="s" s="58">
         <v>395</v>
-      </c>
-      <c r="I72" t="s" s="58">
-        <v>396</v>
       </c>
       <c r="J72" t="s" s="59">
         <v>61</v>
@@ -8591,7 +8588,7 @@
         <v>61</v>
       </c>
       <c r="O72" t="s" s="59">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P72" t="s" s="59">
         <v>61</v>
@@ -8625,22 +8622,22 @@
         <v>81</v>
       </c>
       <c r="D73" t="s" s="55">
+        <v>397</v>
+      </c>
+      <c r="E73" t="s" s="56">
         <v>398</v>
-      </c>
-      <c r="E73" t="s" s="56">
-        <v>399</v>
       </c>
       <c r="F73" s="57">
         <v>45790</v>
       </c>
       <c r="G73" t="s" s="58">
+        <v>399</v>
+      </c>
+      <c r="H73" t="s" s="58">
         <v>400</v>
       </c>
-      <c r="H73" t="s" s="58">
+      <c r="I73" t="s" s="58">
         <v>401</v>
-      </c>
-      <c r="I73" t="s" s="58">
-        <v>402</v>
       </c>
       <c r="J73" t="s" s="59">
         <v>61</v>
@@ -8654,7 +8651,7 @@
         <v>61</v>
       </c>
       <c r="O73" t="s" s="59">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P73" t="s" s="59">
         <v>61</v>
@@ -8688,22 +8685,22 @@
         <v>81</v>
       </c>
       <c r="D74" t="s" s="55">
+        <v>403</v>
+      </c>
+      <c r="E74" t="s" s="56">
         <v>404</v>
-      </c>
-      <c r="E74" t="s" s="56">
-        <v>405</v>
       </c>
       <c r="F74" s="57">
         <v>45790</v>
       </c>
       <c r="G74" t="s" s="58">
+        <v>405</v>
+      </c>
+      <c r="H74" t="s" s="58">
         <v>406</v>
       </c>
-      <c r="H74" t="s" s="58">
+      <c r="I74" t="s" s="58">
         <v>407</v>
-      </c>
-      <c r="I74" t="s" s="58">
-        <v>408</v>
       </c>
       <c r="J74" t="s" s="59">
         <v>61</v>
@@ -8717,7 +8714,7 @@
         <v>61</v>
       </c>
       <c r="O74" t="s" s="59">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P74" t="s" s="59">
         <v>61</v>
@@ -8751,10 +8748,10 @@
         <v>55</v>
       </c>
       <c r="D75" t="s" s="55">
+        <v>409</v>
+      </c>
+      <c r="E75" t="s" s="56">
         <v>410</v>
-      </c>
-      <c r="E75" t="s" s="56">
-        <v>411</v>
       </c>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
@@ -8764,10 +8761,10 @@
         <v>62</v>
       </c>
       <c r="K75" t="s" s="59">
+        <v>411</v>
+      </c>
+      <c r="L75" t="s" s="59">
         <v>412</v>
-      </c>
-      <c r="L75" t="s" s="59">
-        <v>413</v>
       </c>
       <c r="M75" s="60"/>
       <c r="N75" s="60"/>
@@ -8794,10 +8791,10 @@
         <v>55</v>
       </c>
       <c r="D76" t="s" s="55">
+        <v>413</v>
+      </c>
+      <c r="E76" t="s" s="56">
         <v>414</v>
-      </c>
-      <c r="E76" t="s" s="56">
-        <v>415</v>
       </c>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
@@ -8807,10 +8804,10 @@
         <v>62</v>
       </c>
       <c r="K76" t="s" s="59">
+        <v>411</v>
+      </c>
+      <c r="L76" t="s" s="59">
         <v>412</v>
-      </c>
-      <c r="L76" t="s" s="59">
-        <v>413</v>
       </c>
       <c r="M76" s="60"/>
       <c r="N76" s="60"/>
@@ -8837,22 +8834,22 @@
         <v>81</v>
       </c>
       <c r="D77" t="s" s="55">
+        <v>415</v>
+      </c>
+      <c r="E77" t="s" s="56">
         <v>416</v>
-      </c>
-      <c r="E77" t="s" s="56">
-        <v>417</v>
       </c>
       <c r="F77" s="57">
         <v>45790</v>
       </c>
       <c r="G77" t="s" s="58">
+        <v>417</v>
+      </c>
+      <c r="H77" t="s" s="58">
         <v>418</v>
       </c>
-      <c r="H77" t="s" s="58">
+      <c r="I77" t="s" s="58">
         <v>419</v>
-      </c>
-      <c r="I77" t="s" s="58">
-        <v>420</v>
       </c>
       <c r="J77" t="s" s="59">
         <v>61</v>
@@ -8896,22 +8893,22 @@
         <v>81</v>
       </c>
       <c r="D78" t="s" s="55">
+        <v>420</v>
+      </c>
+      <c r="E78" t="s" s="56">
         <v>421</v>
-      </c>
-      <c r="E78" t="s" s="56">
-        <v>422</v>
       </c>
       <c r="F78" s="57">
         <v>45790</v>
       </c>
       <c r="G78" t="s" s="58">
+        <v>422</v>
+      </c>
+      <c r="H78" t="s" s="58">
         <v>423</v>
       </c>
-      <c r="H78" t="s" s="58">
+      <c r="I78" t="s" s="58">
         <v>424</v>
-      </c>
-      <c r="I78" t="s" s="58">
-        <v>425</v>
       </c>
       <c r="J78" t="s" s="59">
         <v>61</v>
@@ -8955,22 +8952,22 @@
         <v>73</v>
       </c>
       <c r="D79" t="s" s="55">
+        <v>425</v>
+      </c>
+      <c r="E79" t="s" s="56">
         <v>426</v>
-      </c>
-      <c r="E79" t="s" s="56">
-        <v>427</v>
       </c>
       <c r="F79" s="57">
         <v>45790</v>
       </c>
       <c r="G79" t="s" s="58">
+        <v>427</v>
+      </c>
+      <c r="H79" t="s" s="58">
         <v>428</v>
       </c>
-      <c r="H79" t="s" s="58">
+      <c r="I79" t="s" s="58">
         <v>429</v>
-      </c>
-      <c r="I79" t="s" s="58">
-        <v>430</v>
       </c>
       <c r="J79" t="s" s="59">
         <v>61</v>
@@ -9014,22 +9011,22 @@
         <v>73</v>
       </c>
       <c r="D80" t="s" s="55">
+        <v>430</v>
+      </c>
+      <c r="E80" t="s" s="56">
         <v>431</v>
-      </c>
-      <c r="E80" t="s" s="56">
-        <v>432</v>
       </c>
       <c r="F80" s="57">
         <v>45790</v>
       </c>
       <c r="G80" t="s" s="58">
+        <v>432</v>
+      </c>
+      <c r="H80" t="s" s="58">
         <v>433</v>
       </c>
-      <c r="H80" t="s" s="58">
+      <c r="I80" t="s" s="58">
         <v>434</v>
-      </c>
-      <c r="I80" t="s" s="58">
-        <v>435</v>
       </c>
       <c r="J80" t="s" s="59">
         <v>61</v>
@@ -9073,22 +9070,22 @@
         <v>55</v>
       </c>
       <c r="D81" t="s" s="55">
+        <v>435</v>
+      </c>
+      <c r="E81" t="s" s="56">
         <v>436</v>
-      </c>
-      <c r="E81" t="s" s="56">
-        <v>437</v>
       </c>
       <c r="F81" s="57">
         <v>45799</v>
       </c>
       <c r="G81" t="s" s="58">
+        <v>437</v>
+      </c>
+      <c r="H81" t="s" s="58">
         <v>438</v>
       </c>
-      <c r="H81" t="s" s="58">
+      <c r="I81" t="s" s="58">
         <v>439</v>
-      </c>
-      <c r="I81" t="s" s="58">
-        <v>440</v>
       </c>
       <c r="J81" t="s" s="59">
         <v>61</v>
@@ -9132,22 +9129,22 @@
         <v>81</v>
       </c>
       <c r="D82" t="s" s="55">
+        <v>440</v>
+      </c>
+      <c r="E82" t="s" s="56">
         <v>441</v>
-      </c>
-      <c r="E82" t="s" s="56">
-        <v>442</v>
       </c>
       <c r="F82" s="57">
         <v>45790</v>
       </c>
       <c r="G82" t="s" s="58">
+        <v>442</v>
+      </c>
+      <c r="H82" t="s" s="59">
         <v>443</v>
       </c>
-      <c r="H82" t="s" s="59">
+      <c r="I82" t="s" s="59">
         <v>444</v>
-      </c>
-      <c r="I82" t="s" s="59">
-        <v>445</v>
       </c>
       <c r="J82" t="s" s="59">
         <v>61</v>
@@ -9161,7 +9158,7 @@
         <v>61</v>
       </c>
       <c r="O82" t="s" s="59">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P82" t="s" s="59">
         <v>61</v>
@@ -9195,22 +9192,22 @@
         <v>77</v>
       </c>
       <c r="D83" t="s" s="55">
+        <v>445</v>
+      </c>
+      <c r="E83" t="s" s="56">
         <v>446</v>
-      </c>
-      <c r="E83" t="s" s="56">
-        <v>447</v>
       </c>
       <c r="F83" s="57">
         <v>45790</v>
       </c>
       <c r="G83" t="s" s="58">
+        <v>447</v>
+      </c>
+      <c r="H83" t="s" s="59">
         <v>448</v>
       </c>
-      <c r="H83" t="s" s="59">
+      <c r="I83" t="s" s="59">
         <v>449</v>
-      </c>
-      <c r="I83" t="s" s="59">
-        <v>450</v>
       </c>
       <c r="J83" t="s" s="59">
         <v>61</v>
@@ -9224,7 +9221,7 @@
         <v>61</v>
       </c>
       <c r="O83" t="s" s="59">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P83" t="s" s="59">
         <v>61</v>
@@ -9258,22 +9255,22 @@
         <v>55</v>
       </c>
       <c r="D84" t="s" s="55">
+        <v>451</v>
+      </c>
+      <c r="E84" t="s" s="56">
         <v>452</v>
-      </c>
-      <c r="E84" t="s" s="56">
-        <v>453</v>
       </c>
       <c r="F84" s="57">
         <v>45790</v>
       </c>
       <c r="G84" t="s" s="58">
+        <v>453</v>
+      </c>
+      <c r="H84" t="s" s="59">
         <v>454</v>
       </c>
-      <c r="H84" t="s" s="59">
+      <c r="I84" t="s" s="59">
         <v>455</v>
-      </c>
-      <c r="I84" t="s" s="59">
-        <v>456</v>
       </c>
       <c r="J84" t="s" s="59">
         <v>61</v>
@@ -9287,7 +9284,7 @@
         <v>61</v>
       </c>
       <c r="O84" t="s" s="59">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P84" t="s" s="59">
         <v>61</v>
@@ -9321,22 +9318,22 @@
         <v>73</v>
       </c>
       <c r="D85" t="s" s="55">
+        <v>456</v>
+      </c>
+      <c r="E85" t="s" s="56">
         <v>457</v>
-      </c>
-      <c r="E85" t="s" s="56">
-        <v>458</v>
       </c>
       <c r="F85" s="57">
         <v>45790</v>
       </c>
       <c r="G85" t="s" s="58">
+        <v>458</v>
+      </c>
+      <c r="H85" t="s" s="59">
         <v>459</v>
       </c>
-      <c r="H85" t="s" s="59">
+      <c r="I85" t="s" s="59">
         <v>460</v>
-      </c>
-      <c r="I85" t="s" s="59">
-        <v>461</v>
       </c>
       <c r="J85" t="s" s="59">
         <v>61</v>
@@ -9350,7 +9347,7 @@
         <v>61</v>
       </c>
       <c r="O85" t="s" s="59">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P85" t="s" s="59">
         <v>61</v>
@@ -9384,22 +9381,22 @@
         <v>81</v>
       </c>
       <c r="D86" t="s" s="55">
+        <v>461</v>
+      </c>
+      <c r="E86" t="s" s="56">
         <v>462</v>
-      </c>
-      <c r="E86" t="s" s="56">
-        <v>463</v>
       </c>
       <c r="F86" s="57">
         <v>45790</v>
       </c>
       <c r="G86" t="s" s="58">
+        <v>463</v>
+      </c>
+      <c r="H86" t="s" s="59">
         <v>464</v>
       </c>
-      <c r="H86" t="s" s="59">
+      <c r="I86" t="s" s="59">
         <v>465</v>
-      </c>
-      <c r="I86" t="s" s="59">
-        <v>466</v>
       </c>
       <c r="J86" t="s" s="59">
         <v>61</v>
@@ -9413,7 +9410,7 @@
         <v>61</v>
       </c>
       <c r="O86" t="s" s="59">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P86" t="s" s="59">
         <v>61</v>
@@ -9447,22 +9444,22 @@
         <v>77</v>
       </c>
       <c r="D87" t="s" s="55">
+        <v>466</v>
+      </c>
+      <c r="E87" t="s" s="56">
         <v>467</v>
-      </c>
-      <c r="E87" t="s" s="56">
-        <v>468</v>
       </c>
       <c r="F87" s="57">
         <v>45790</v>
       </c>
       <c r="G87" t="s" s="58">
+        <v>468</v>
+      </c>
+      <c r="H87" t="s" s="58">
         <v>469</v>
       </c>
-      <c r="H87" t="s" s="58">
+      <c r="I87" t="s" s="58">
         <v>470</v>
-      </c>
-      <c r="I87" t="s" s="58">
-        <v>471</v>
       </c>
       <c r="J87" t="s" s="59">
         <v>61</v>
@@ -9506,22 +9503,22 @@
         <v>77</v>
       </c>
       <c r="D88" t="s" s="55">
+        <v>471</v>
+      </c>
+      <c r="E88" t="s" s="56">
         <v>472</v>
-      </c>
-      <c r="E88" t="s" s="56">
-        <v>473</v>
       </c>
       <c r="F88" s="57">
         <v>45790</v>
       </c>
       <c r="G88" t="s" s="58">
+        <v>473</v>
+      </c>
+      <c r="H88" t="s" s="58">
         <v>474</v>
       </c>
-      <c r="H88" t="s" s="58">
+      <c r="I88" t="s" s="58">
         <v>475</v>
-      </c>
-      <c r="I88" t="s" s="58">
-        <v>476</v>
       </c>
       <c r="J88" t="s" s="59">
         <v>61</v>
@@ -23552,7 +23549,7 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="69">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -23561,7 +23558,7 @@
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="69">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -23570,7 +23567,7 @@
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="69">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -23579,7 +23576,7 @@
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="69">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -23588,7 +23585,7 @@
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="69">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -23597,7 +23594,7 @@
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="69">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -23606,7 +23603,7 @@
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="69">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -23615,7 +23612,7 @@
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="69">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -23665,23 +23662,23 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s" s="71">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" t="s" s="71">
         <v>32</v>
       </c>
       <c r="C1" t="s" s="71">
+        <v>486</v>
+      </c>
+      <c r="D1" t="s" s="71">
         <v>487</v>
-      </c>
-      <c r="D1" t="s" s="71">
-        <v>488</v>
       </c>
       <c r="E1" s="72"/>
       <c r="F1" t="s" s="73">
+        <v>488</v>
+      </c>
+      <c r="G1" t="s" s="74">
         <v>489</v>
-      </c>
-      <c r="G1" t="s" s="74">
-        <v>490</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -23689,13 +23686,13 @@
         <v>55</v>
       </c>
       <c r="B2" t="s" s="76">
+        <v>490</v>
+      </c>
+      <c r="C2" t="s" s="77">
         <v>491</v>
       </c>
-      <c r="C2" t="s" s="77">
+      <c r="D2" t="s" s="77">
         <v>492</v>
-      </c>
-      <c r="D2" t="s" s="77">
-        <v>493</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="24"/>
@@ -23706,13 +23703,13 @@
         <v>73</v>
       </c>
       <c r="B3" t="s" s="76">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C3" t="s" s="77">
+        <v>493</v>
+      </c>
+      <c r="D3" t="s" s="77">
         <v>494</v>
-      </c>
-      <c r="D3" t="s" s="77">
-        <v>495</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="8"/>
@@ -23723,13 +23720,13 @@
         <v>77</v>
       </c>
       <c r="B4" t="s" s="76">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C4" t="s" s="77">
+        <v>495</v>
+      </c>
+      <c r="D4" t="s" s="78">
         <v>496</v>
-      </c>
-      <c r="D4" t="s" s="78">
-        <v>497</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="8"/>
@@ -23737,16 +23734,16 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s" s="75">
+        <v>497</v>
+      </c>
+      <c r="B5" t="s" s="76">
+        <v>490</v>
+      </c>
+      <c r="C5" t="s" s="77">
         <v>498</v>
       </c>
-      <c r="B5" t="s" s="76">
-        <v>491</v>
-      </c>
-      <c r="C5" t="s" s="77">
+      <c r="D5" t="s" s="77">
         <v>499</v>
-      </c>
-      <c r="D5" t="s" s="77">
-        <v>500</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="8"/>
@@ -23754,16 +23751,16 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s" s="75">
+        <v>500</v>
+      </c>
+      <c r="B6" t="s" s="76">
+        <v>490</v>
+      </c>
+      <c r="C6" t="s" s="77">
         <v>501</v>
       </c>
-      <c r="B6" t="s" s="76">
-        <v>491</v>
-      </c>
-      <c r="C6" t="s" s="77">
+      <c r="D6" t="s" s="78">
         <v>502</v>
-      </c>
-      <c r="D6" t="s" s="78">
-        <v>503</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="8"/>
@@ -23771,16 +23768,16 @@
     </row>
     <row r="7" ht="14.5" customHeight="1">
       <c r="A7" t="s" s="75">
+        <v>503</v>
+      </c>
+      <c r="B7" t="s" s="76">
+        <v>490</v>
+      </c>
+      <c r="C7" t="s" s="77">
         <v>504</v>
       </c>
-      <c r="B7" t="s" s="76">
-        <v>491</v>
-      </c>
-      <c r="C7" t="s" s="77">
+      <c r="D7" t="s" s="78">
         <v>505</v>
-      </c>
-      <c r="D7" t="s" s="78">
-        <v>506</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="8"/>
@@ -23791,13 +23788,13 @@
         <v>81</v>
       </c>
       <c r="B8" t="s" s="76">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C8" t="s" s="77">
+        <v>506</v>
+      </c>
+      <c r="D8" t="s" s="78">
         <v>507</v>
-      </c>
-      <c r="D8" t="s" s="78">
-        <v>508</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="8"/>
@@ -23805,16 +23802,16 @@
     </row>
     <row r="9" ht="14.5" customHeight="1">
       <c r="A9" t="s" s="75">
+        <v>508</v>
+      </c>
+      <c r="B9" t="s" s="76">
+        <v>490</v>
+      </c>
+      <c r="C9" t="s" s="77">
         <v>509</v>
       </c>
-      <c r="B9" t="s" s="76">
-        <v>491</v>
-      </c>
-      <c r="C9" t="s" s="77">
+      <c r="D9" t="s" s="78">
         <v>510</v>
-      </c>
-      <c r="D9" t="s" s="78">
-        <v>511</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="8"/>
@@ -23822,16 +23819,16 @@
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" t="s" s="75">
+        <v>511</v>
+      </c>
+      <c r="B10" t="s" s="76">
+        <v>490</v>
+      </c>
+      <c r="C10" t="s" s="78">
         <v>512</v>
       </c>
-      <c r="B10" t="s" s="76">
-        <v>491</v>
-      </c>
-      <c r="C10" t="s" s="78">
+      <c r="D10" t="s" s="77">
         <v>513</v>
-      </c>
-      <c r="D10" t="s" s="77">
-        <v>514</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="8"/>
@@ -23839,16 +23836,16 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s" s="75">
+        <v>514</v>
+      </c>
+      <c r="B11" t="s" s="76">
+        <v>490</v>
+      </c>
+      <c r="C11" t="s" s="77">
         <v>515</v>
       </c>
-      <c r="B11" t="s" s="76">
-        <v>491</v>
-      </c>
-      <c r="C11" t="s" s="77">
+      <c r="D11" t="s" s="78">
         <v>516</v>
-      </c>
-      <c r="D11" t="s" s="78">
-        <v>517</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="8"/>
@@ -23919,7 +23916,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="85">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B3" t="s" s="86">
         <v>62</v>
